--- a/2021年下半年度出席表.xlsx
+++ b/2021年下半年度出席表.xlsx
@@ -1270,9 +1270,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="178" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1368,8 +1368,16 @@
       <charset val="136"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
@@ -1509,7 +1517,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1547,13 +1555,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1580,19 +1588,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11321,13 +11335,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="24" customWidth="1"/>
-    <col min="3" max="28" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="28" customWidth="1"/>
+    <col min="3" max="28" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11335,93 +11351,93 @@
         <v>409</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="15" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="14">
+    <row r="2" spans="1:28" s="27" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="26">
         <v>44381</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="26">
         <v>44388</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="26">
         <v>44395</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="26">
         <v>44402</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="26">
         <v>44409</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="26">
         <v>44416</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="26">
         <v>44423</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="26">
         <v>44430</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="26">
         <v>44437</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="26">
         <v>44444</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="26">
         <v>44451</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="26">
         <v>44458</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="26">
         <v>44465</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="26">
         <v>44472</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="26">
         <v>44479</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="26">
         <v>44486</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2" s="26">
         <v>44493</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="26">
         <v>44500</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="26">
         <v>44507</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="26">
         <v>44514</v>
       </c>
-      <c r="W2" s="14">
+      <c r="W2" s="26">
         <v>44521</v>
       </c>
-      <c r="X2" s="14">
+      <c r="X2" s="26">
         <v>44528</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="26">
         <v>44535</v>
       </c>
-      <c r="Z2" s="14">
+      <c r="Z2" s="26">
         <v>44542</v>
       </c>
-      <c r="AA2" s="14">
+      <c r="AA2" s="26">
         <v>44549</v>
       </c>
-      <c r="AB2" s="14">
+      <c r="AB2" s="26">
         <v>44556</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="30" t="s">
         <v>353</v>
       </c>
       <c r="C3" s="18"/>
@@ -11452,11 +11468,11 @@
       <c r="AB3" s="18"/>
     </row>
     <row r="4" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
+      <c r="A4" s="25">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="30" t="s">
         <v>354</v>
       </c>
       <c r="C4" s="18"/>
@@ -11487,11 +11503,11 @@
       <c r="AB4" s="18"/>
     </row>
     <row r="5" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
+      <c r="A5" s="25">
         <f t="shared" ref="A5:A22" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="30" t="s">
         <v>355</v>
       </c>
       <c r="C5" s="18"/>
@@ -11522,11 +11538,11 @@
       <c r="AB5" s="18"/>
     </row>
     <row r="6" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
+      <c r="A6" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="30" t="s">
         <v>356</v>
       </c>
       <c r="C6" s="18"/>
@@ -11557,11 +11573,11 @@
       <c r="AB6" s="18"/>
     </row>
     <row r="7" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28">
+      <c r="A7" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="30" t="s">
         <v>357</v>
       </c>
       <c r="C7" s="18"/>
@@ -11592,11 +11608,11 @@
       <c r="AB7" s="18"/>
     </row>
     <row r="8" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+      <c r="A8" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="18"/>
@@ -11627,11 +11643,11 @@
       <c r="AB8" s="18"/>
     </row>
     <row r="9" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+      <c r="A9" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="18"/>
@@ -11662,11 +11678,11 @@
       <c r="AB9" s="18"/>
     </row>
     <row r="10" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+      <c r="A10" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="30" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="18"/>
@@ -11697,11 +11713,11 @@
       <c r="AB10" s="18"/>
     </row>
     <row r="11" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+      <c r="A11" s="25">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="18"/>
@@ -11732,11 +11748,11 @@
       <c r="AB11" s="18"/>
     </row>
     <row r="12" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+      <c r="A12" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="30" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="18"/>
@@ -11767,11 +11783,11 @@
       <c r="AB12" s="18"/>
     </row>
     <row r="13" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
+      <c r="A13" s="25">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="18"/>
@@ -11802,11 +11818,11 @@
       <c r="AB13" s="18"/>
     </row>
     <row r="14" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
+      <c r="A14" s="25">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="30" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="18"/>
@@ -11837,11 +11853,11 @@
       <c r="AB14" s="18"/>
     </row>
     <row r="15" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28">
+      <c r="A15" s="25">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="18"/>
@@ -11872,11 +11888,11 @@
       <c r="AB15" s="18"/>
     </row>
     <row r="16" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28">
+      <c r="A16" s="25">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="18"/>
@@ -11907,11 +11923,11 @@
       <c r="AB16" s="18"/>
     </row>
     <row r="17" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28">
+      <c r="A17" s="25">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="18"/>
@@ -11942,11 +11958,11 @@
       <c r="AB17" s="18"/>
     </row>
     <row r="18" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28">
+      <c r="A18" s="25">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="18"/>
@@ -11977,11 +11993,11 @@
       <c r="AB18" s="18"/>
     </row>
     <row r="19" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28">
+      <c r="A19" s="25">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="30" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="18"/>
@@ -12012,11 +12028,11 @@
       <c r="AB19" s="18"/>
     </row>
     <row r="20" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28">
+      <c r="A20" s="25">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="30" t="s">
         <v>70</v>
       </c>
       <c r="C20" s="18"/>
@@ -12047,11 +12063,11 @@
       <c r="AB20" s="18"/>
     </row>
     <row r="21" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28">
+      <c r="A21" s="25">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C21" s="18"/>
@@ -12082,11 +12098,11 @@
       <c r="AB21" s="18"/>
     </row>
     <row r="22" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28">
+      <c r="A22" s="25">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C22" s="18"/>
@@ -12121,93 +12137,93 @@
         <v>409</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="15" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="14">
+    <row r="24" spans="1:28" s="27" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="26">
         <v>44381</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="26">
         <v>44388</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="26">
         <v>44395</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="26">
         <v>44402</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="26">
         <v>44409</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="26">
         <v>44416</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="26">
         <v>44423</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="26">
         <v>44430</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="26">
         <v>44437</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="26">
         <v>44444</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="26">
         <v>44451</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="26">
         <v>44458</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="26">
         <v>44465</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="26">
         <v>44472</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24" s="26">
         <v>44479</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24" s="26">
         <v>44486</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S24" s="26">
         <v>44493</v>
       </c>
-      <c r="T24" s="14">
+      <c r="T24" s="26">
         <v>44500</v>
       </c>
-      <c r="U24" s="14">
+      <c r="U24" s="26">
         <v>44507</v>
       </c>
-      <c r="V24" s="14">
+      <c r="V24" s="26">
         <v>44514</v>
       </c>
-      <c r="W24" s="14">
+      <c r="W24" s="26">
         <v>44521</v>
       </c>
-      <c r="X24" s="14">
+      <c r="X24" s="26">
         <v>44528</v>
       </c>
-      <c r="Y24" s="14">
+      <c r="Y24" s="26">
         <v>44535</v>
       </c>
-      <c r="Z24" s="14">
+      <c r="Z24" s="26">
         <v>44542</v>
       </c>
-      <c r="AA24" s="14">
+      <c r="AA24" s="26">
         <v>44549</v>
       </c>
-      <c r="AB24" s="14">
+      <c r="AB24" s="26">
         <v>44556</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28">
+      <c r="A25" s="25">
         <v>21</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="30" t="s">
         <v>353</v>
       </c>
       <c r="C25" s="18"/>
@@ -12238,11 +12254,11 @@
       <c r="AB25" s="18"/>
     </row>
     <row r="26" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28">
+      <c r="A26" s="25">
         <f>A25+1</f>
         <v>22</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="30" t="s">
         <v>354</v>
       </c>
       <c r="C26" s="18"/>
@@ -12273,11 +12289,11 @@
       <c r="AB26" s="18"/>
     </row>
     <row r="27" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28">
+      <c r="A27" s="25">
         <f t="shared" ref="A27:A44" si="1">A26+1</f>
         <v>23</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="30" t="s">
         <v>355</v>
       </c>
       <c r="C27" s="18"/>
@@ -12308,11 +12324,11 @@
       <c r="AB27" s="18"/>
     </row>
     <row r="28" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28">
+      <c r="A28" s="25">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="30" t="s">
         <v>356</v>
       </c>
       <c r="C28" s="18"/>
@@ -12343,11 +12359,11 @@
       <c r="AB28" s="18"/>
     </row>
     <row r="29" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28">
+      <c r="A29" s="25">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="30" t="s">
         <v>357</v>
       </c>
       <c r="C29" s="18"/>
@@ -12378,11 +12394,11 @@
       <c r="AB29" s="18"/>
     </row>
     <row r="30" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28">
+      <c r="A30" s="25">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="18"/>
@@ -12413,11 +12429,11 @@
       <c r="AB30" s="18"/>
     </row>
     <row r="31" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28">
+      <c r="A31" s="25">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="18"/>
@@ -12448,11 +12464,11 @@
       <c r="AB31" s="18"/>
     </row>
     <row r="32" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28">
+      <c r="A32" s="25">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="30" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="18"/>
@@ -12483,11 +12499,11 @@
       <c r="AB32" s="18"/>
     </row>
     <row r="33" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28">
+      <c r="A33" s="25">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="18"/>
@@ -12518,11 +12534,11 @@
       <c r="AB33" s="18"/>
     </row>
     <row r="34" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28">
+      <c r="A34" s="25">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="30" t="s">
         <v>110</v>
       </c>
       <c r="C34" s="18"/>
@@ -12553,11 +12569,11 @@
       <c r="AB34" s="18"/>
     </row>
     <row r="35" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28">
+      <c r="A35" s="25">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="18"/>
@@ -12588,11 +12604,11 @@
       <c r="AB35" s="18"/>
     </row>
     <row r="36" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28">
+      <c r="A36" s="25">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="30" t="s">
         <v>88</v>
       </c>
       <c r="C36" s="18"/>
@@ -12623,11 +12639,11 @@
       <c r="AB36" s="18"/>
     </row>
     <row r="37" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="28">
+      <c r="A37" s="25">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="18"/>
@@ -12658,11 +12674,11 @@
       <c r="AB37" s="18"/>
     </row>
     <row r="38" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28">
+      <c r="A38" s="25">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="18"/>
@@ -12693,11 +12709,11 @@
       <c r="AB38" s="18"/>
     </row>
     <row r="39" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28">
+      <c r="A39" s="25">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="18"/>
@@ -12728,11 +12744,11 @@
       <c r="AB39" s="18"/>
     </row>
     <row r="40" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28">
+      <c r="A40" s="25">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="18"/>
@@ -12763,11 +12779,11 @@
       <c r="AB40" s="18"/>
     </row>
     <row r="41" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28">
+      <c r="A41" s="25">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="30" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="18"/>
@@ -12798,11 +12814,11 @@
       <c r="AB41" s="18"/>
     </row>
     <row r="42" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="28">
+      <c r="A42" s="25">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="30" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="18"/>
@@ -12833,11 +12849,11 @@
       <c r="AB42" s="18"/>
     </row>
     <row r="43" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28">
+      <c r="A43" s="25">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C43" s="18"/>
@@ -12868,11 +12884,11 @@
       <c r="AB43" s="18"/>
     </row>
     <row r="44" spans="1:28" s="19" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="28">
+      <c r="A44" s="25">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="18"/>
@@ -12907,93 +12923,93 @@
         <v>409</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="15" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="14">
+    <row r="46" spans="1:28" s="27" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="24"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="26">
         <v>44381</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="26">
         <v>44388</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="26">
         <v>44395</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="26">
         <v>44402</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="26">
         <v>44409</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="26">
         <v>44416</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="26">
         <v>44423</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="26">
         <v>44430</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K46" s="26">
         <v>44437</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L46" s="26">
         <v>44444</v>
       </c>
-      <c r="M46" s="14">
+      <c r="M46" s="26">
         <v>44451</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N46" s="26">
         <v>44458</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O46" s="26">
         <v>44465</v>
       </c>
-      <c r="P46" s="14">
+      <c r="P46" s="26">
         <v>44472</v>
       </c>
-      <c r="Q46" s="14">
+      <c r="Q46" s="26">
         <v>44479</v>
       </c>
-      <c r="R46" s="14">
+      <c r="R46" s="26">
         <v>44486</v>
       </c>
-      <c r="S46" s="14">
+      <c r="S46" s="26">
         <v>44493</v>
       </c>
-      <c r="T46" s="14">
+      <c r="T46" s="26">
         <v>44500</v>
       </c>
-      <c r="U46" s="14">
+      <c r="U46" s="26">
         <v>44507</v>
       </c>
-      <c r="V46" s="14">
+      <c r="V46" s="26">
         <v>44514</v>
       </c>
-      <c r="W46" s="14">
+      <c r="W46" s="26">
         <v>44521</v>
       </c>
-      <c r="X46" s="14">
+      <c r="X46" s="26">
         <v>44528</v>
       </c>
-      <c r="Y46" s="14">
+      <c r="Y46" s="26">
         <v>44535</v>
       </c>
-      <c r="Z46" s="14">
+      <c r="Z46" s="26">
         <v>44542</v>
       </c>
-      <c r="AA46" s="14">
+      <c r="AA46" s="26">
         <v>44549</v>
       </c>
-      <c r="AB46" s="14">
+      <c r="AB46" s="26">
         <v>44556</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="28">
+      <c r="A47" s="25">
         <v>41</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="30" t="s">
         <v>353</v>
       </c>
       <c r="C47" s="18"/>
@@ -13024,11 +13040,11 @@
       <c r="AB47" s="18"/>
     </row>
     <row r="48" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="28">
+      <c r="A48" s="25">
         <f>A47+1</f>
         <v>42</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="30" t="s">
         <v>354</v>
       </c>
       <c r="C48" s="18"/>
@@ -13059,11 +13075,11 @@
       <c r="AB48" s="18"/>
     </row>
     <row r="49" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28">
+      <c r="A49" s="25">
         <f t="shared" ref="A49:A66" si="2">A48+1</f>
         <v>43</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="30" t="s">
         <v>355</v>
       </c>
       <c r="C49" s="18"/>
@@ -13094,11 +13110,11 @@
       <c r="AB49" s="18"/>
     </row>
     <row r="50" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="28">
+      <c r="A50" s="25">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="30" t="s">
         <v>356</v>
       </c>
       <c r="C50" s="18"/>
@@ -13129,11 +13145,11 @@
       <c r="AB50" s="18"/>
     </row>
     <row r="51" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="28">
+      <c r="A51" s="25">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="30" t="s">
         <v>357</v>
       </c>
       <c r="C51" s="18"/>
@@ -13164,11 +13180,11 @@
       <c r="AB51" s="18"/>
     </row>
     <row r="52" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="28">
+      <c r="A52" s="25">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="18"/>
@@ -13199,11 +13215,11 @@
       <c r="AB52" s="18"/>
     </row>
     <row r="53" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="28">
+      <c r="A53" s="25">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="18"/>
@@ -13234,11 +13250,11 @@
       <c r="AB53" s="18"/>
     </row>
     <row r="54" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="28">
+      <c r="A54" s="25">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="30" t="s">
         <v>104</v>
       </c>
       <c r="C54" s="18"/>
@@ -13269,11 +13285,11 @@
       <c r="AB54" s="18"/>
     </row>
     <row r="55" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="28">
+      <c r="A55" s="25">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C55" s="18"/>
@@ -13304,11 +13320,11 @@
       <c r="AB55" s="18"/>
     </row>
     <row r="56" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="28">
+      <c r="A56" s="25">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="30" t="s">
         <v>110</v>
       </c>
       <c r="C56" s="18"/>
@@ -13339,11 +13355,11 @@
       <c r="AB56" s="18"/>
     </row>
     <row r="57" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28">
+      <c r="A57" s="25">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="18"/>
@@ -13374,11 +13390,11 @@
       <c r="AB57" s="18"/>
     </row>
     <row r="58" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="28">
+      <c r="A58" s="25">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="30" t="s">
         <v>88</v>
       </c>
       <c r="C58" s="18"/>
@@ -13409,11 +13425,11 @@
       <c r="AB58" s="18"/>
     </row>
     <row r="59" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="28">
+      <c r="A59" s="25">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C59" s="18"/>
@@ -13444,11 +13460,11 @@
       <c r="AB59" s="18"/>
     </row>
     <row r="60" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="28">
+      <c r="A60" s="25">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C60" s="18"/>
@@ -13479,11 +13495,11 @@
       <c r="AB60" s="18"/>
     </row>
     <row r="61" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="28">
+      <c r="A61" s="25">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C61" s="18"/>
@@ -13514,11 +13530,11 @@
       <c r="AB61" s="18"/>
     </row>
     <row r="62" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="28">
+      <c r="A62" s="25">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C62" s="18"/>
@@ -13549,11 +13565,11 @@
       <c r="AB62" s="18"/>
     </row>
     <row r="63" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="28">
+      <c r="A63" s="25">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="30" t="s">
         <v>93</v>
       </c>
       <c r="C63" s="18"/>
@@ -13584,11 +13600,11 @@
       <c r="AB63" s="18"/>
     </row>
     <row r="64" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="28">
+      <c r="A64" s="25">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="30" t="s">
         <v>70</v>
       </c>
       <c r="C64" s="18"/>
@@ -13619,11 +13635,11 @@
       <c r="AB64" s="18"/>
     </row>
     <row r="65" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="28">
+      <c r="A65" s="25">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C65" s="18"/>
@@ -13654,11 +13670,11 @@
       <c r="AB65" s="18"/>
     </row>
     <row r="66" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="28">
+      <c r="A66" s="25">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C66" s="18"/>
@@ -13693,93 +13709,93 @@
         <v>409</v>
       </c>
     </row>
-    <row r="68" spans="1:28" s="15" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="14">
+    <row r="68" spans="1:28" s="27" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="24"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="26">
         <v>44381</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D68" s="26">
         <v>44388</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="26">
         <v>44395</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="26">
         <v>44402</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G68" s="26">
         <v>44409</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="26">
         <v>44416</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I68" s="26">
         <v>44423</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J68" s="26">
         <v>44430</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K68" s="26">
         <v>44437</v>
       </c>
-      <c r="L68" s="14">
+      <c r="L68" s="26">
         <v>44444</v>
       </c>
-      <c r="M68" s="14">
+      <c r="M68" s="26">
         <v>44451</v>
       </c>
-      <c r="N68" s="14">
+      <c r="N68" s="26">
         <v>44458</v>
       </c>
-      <c r="O68" s="14">
+      <c r="O68" s="26">
         <v>44465</v>
       </c>
-      <c r="P68" s="14">
+      <c r="P68" s="26">
         <v>44472</v>
       </c>
-      <c r="Q68" s="14">
+      <c r="Q68" s="26">
         <v>44479</v>
       </c>
-      <c r="R68" s="14">
+      <c r="R68" s="26">
         <v>44486</v>
       </c>
-      <c r="S68" s="14">
+      <c r="S68" s="26">
         <v>44493</v>
       </c>
-      <c r="T68" s="14">
+      <c r="T68" s="26">
         <v>44500</v>
       </c>
-      <c r="U68" s="14">
+      <c r="U68" s="26">
         <v>44507</v>
       </c>
-      <c r="V68" s="14">
+      <c r="V68" s="26">
         <v>44514</v>
       </c>
-      <c r="W68" s="14">
+      <c r="W68" s="26">
         <v>44521</v>
       </c>
-      <c r="X68" s="14">
+      <c r="X68" s="26">
         <v>44528</v>
       </c>
-      <c r="Y68" s="14">
+      <c r="Y68" s="26">
         <v>44535</v>
       </c>
-      <c r="Z68" s="14">
+      <c r="Z68" s="26">
         <v>44542</v>
       </c>
-      <c r="AA68" s="14">
+      <c r="AA68" s="26">
         <v>44549</v>
       </c>
-      <c r="AB68" s="14">
+      <c r="AB68" s="26">
         <v>44556</v>
       </c>
     </row>
     <row r="69" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="28">
+      <c r="A69" s="25">
         <v>61</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="30" t="s">
         <v>353</v>
       </c>
       <c r="C69" s="18"/>
@@ -13810,11 +13826,11 @@
       <c r="AB69" s="18"/>
     </row>
     <row r="70" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="28">
+      <c r="A70" s="25">
         <f>A69+1</f>
         <v>62</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="30" t="s">
         <v>354</v>
       </c>
       <c r="C70" s="18"/>
@@ -13845,11 +13861,11 @@
       <c r="AB70" s="18"/>
     </row>
     <row r="71" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="28">
+      <c r="A71" s="25">
         <f t="shared" ref="A71:A88" si="3">A70+1</f>
         <v>63</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="30" t="s">
         <v>355</v>
       </c>
       <c r="C71" s="18"/>
@@ -13880,11 +13896,11 @@
       <c r="AB71" s="18"/>
     </row>
     <row r="72" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="28">
+      <c r="A72" s="25">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="30" t="s">
         <v>356</v>
       </c>
       <c r="C72" s="18"/>
@@ -13915,11 +13931,11 @@
       <c r="AB72" s="18"/>
     </row>
     <row r="73" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="28">
+      <c r="A73" s="25">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="30" t="s">
         <v>357</v>
       </c>
       <c r="C73" s="18"/>
@@ -13950,11 +13966,11 @@
       <c r="AB73" s="18"/>
     </row>
     <row r="74" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="28">
+      <c r="A74" s="25">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C74" s="18"/>
@@ -13985,11 +14001,11 @@
       <c r="AB74" s="18"/>
     </row>
     <row r="75" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="28">
+      <c r="A75" s="25">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C75" s="18"/>
@@ -14020,11 +14036,11 @@
       <c r="AB75" s="18"/>
     </row>
     <row r="76" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="28">
+      <c r="A76" s="25">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="30" t="s">
         <v>104</v>
       </c>
       <c r="C76" s="18"/>
@@ -14055,11 +14071,11 @@
       <c r="AB76" s="18"/>
     </row>
     <row r="77" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="28">
+      <c r="A77" s="25">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C77" s="18"/>
@@ -14090,11 +14106,11 @@
       <c r="AB77" s="18"/>
     </row>
     <row r="78" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="28">
+      <c r="A78" s="25">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="30" t="s">
         <v>110</v>
       </c>
       <c r="C78" s="18"/>
@@ -14125,11 +14141,11 @@
       <c r="AB78" s="18"/>
     </row>
     <row r="79" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="28">
+      <c r="A79" s="25">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C79" s="18"/>
@@ -14160,11 +14176,11 @@
       <c r="AB79" s="18"/>
     </row>
     <row r="80" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="28">
+      <c r="A80" s="25">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="30" t="s">
         <v>88</v>
       </c>
       <c r="C80" s="18"/>
@@ -14195,11 +14211,11 @@
       <c r="AB80" s="18"/>
     </row>
     <row r="81" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="28">
+      <c r="A81" s="25">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C81" s="18"/>
@@ -14230,11 +14246,11 @@
       <c r="AB81" s="18"/>
     </row>
     <row r="82" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="28">
+      <c r="A82" s="25">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C82" s="18"/>
@@ -14265,11 +14281,11 @@
       <c r="AB82" s="18"/>
     </row>
     <row r="83" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="28">
+      <c r="A83" s="25">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C83" s="18"/>
@@ -14300,11 +14316,11 @@
       <c r="AB83" s="18"/>
     </row>
     <row r="84" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="28">
+      <c r="A84" s="25">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C84" s="18"/>
@@ -14335,11 +14351,11 @@
       <c r="AB84" s="18"/>
     </row>
     <row r="85" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="28">
+      <c r="A85" s="25">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="30" t="s">
         <v>93</v>
       </c>
       <c r="C85" s="18"/>
@@ -14370,11 +14386,11 @@
       <c r="AB85" s="18"/>
     </row>
     <row r="86" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="28">
+      <c r="A86" s="25">
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="30" t="s">
         <v>70</v>
       </c>
       <c r="C86" s="18"/>
@@ -14405,11 +14421,11 @@
       <c r="AB86" s="18"/>
     </row>
     <row r="87" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="28">
+      <c r="A87" s="25">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C87" s="18"/>
@@ -14440,11 +14456,11 @@
       <c r="AB87" s="18"/>
     </row>
     <row r="88" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="28">
+      <c r="A88" s="25">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="B88" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C88" s="18"/>
@@ -14479,93 +14495,93 @@
         <v>409</v>
       </c>
     </row>
-    <row r="90" spans="1:28" s="15" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="27"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="14">
+    <row r="90" spans="1:28" s="27" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="24"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="26">
         <v>44381</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D90" s="26">
         <v>44388</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E90" s="26">
         <v>44395</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F90" s="26">
         <v>44402</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G90" s="26">
         <v>44409</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H90" s="26">
         <v>44416</v>
       </c>
-      <c r="I90" s="14">
+      <c r="I90" s="26">
         <v>44423</v>
       </c>
-      <c r="J90" s="14">
+      <c r="J90" s="26">
         <v>44430</v>
       </c>
-      <c r="K90" s="14">
+      <c r="K90" s="26">
         <v>44437</v>
       </c>
-      <c r="L90" s="14">
+      <c r="L90" s="26">
         <v>44444</v>
       </c>
-      <c r="M90" s="14">
+      <c r="M90" s="26">
         <v>44451</v>
       </c>
-      <c r="N90" s="14">
+      <c r="N90" s="26">
         <v>44458</v>
       </c>
-      <c r="O90" s="14">
+      <c r="O90" s="26">
         <v>44465</v>
       </c>
-      <c r="P90" s="14">
+      <c r="P90" s="26">
         <v>44472</v>
       </c>
-      <c r="Q90" s="14">
+      <c r="Q90" s="26">
         <v>44479</v>
       </c>
-      <c r="R90" s="14">
+      <c r="R90" s="26">
         <v>44486</v>
       </c>
-      <c r="S90" s="14">
+      <c r="S90" s="26">
         <v>44493</v>
       </c>
-      <c r="T90" s="14">
+      <c r="T90" s="26">
         <v>44500</v>
       </c>
-      <c r="U90" s="14">
+      <c r="U90" s="26">
         <v>44507</v>
       </c>
-      <c r="V90" s="14">
+      <c r="V90" s="26">
         <v>44514</v>
       </c>
-      <c r="W90" s="14">
+      <c r="W90" s="26">
         <v>44521</v>
       </c>
-      <c r="X90" s="14">
+      <c r="X90" s="26">
         <v>44528</v>
       </c>
-      <c r="Y90" s="14">
+      <c r="Y90" s="26">
         <v>44535</v>
       </c>
-      <c r="Z90" s="14">
+      <c r="Z90" s="26">
         <v>44542</v>
       </c>
-      <c r="AA90" s="14">
+      <c r="AA90" s="26">
         <v>44549</v>
       </c>
-      <c r="AB90" s="14">
+      <c r="AB90" s="26">
         <v>44556</v>
       </c>
     </row>
     <row r="91" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="28">
+      <c r="A91" s="25">
         <v>81</v>
       </c>
-      <c r="B91" s="26" t="s">
+      <c r="B91" s="30" t="s">
         <v>353</v>
       </c>
       <c r="C91" s="18"/>
@@ -14596,11 +14612,11 @@
       <c r="AB91" s="18"/>
     </row>
     <row r="92" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="28">
+      <c r="A92" s="25">
         <f>A91+1</f>
         <v>82</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="30" t="s">
         <v>354</v>
       </c>
       <c r="C92" s="18"/>
@@ -14631,11 +14647,11 @@
       <c r="AB92" s="18"/>
     </row>
     <row r="93" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="28">
+      <c r="A93" s="25">
         <f t="shared" ref="A93:A110" si="4">A92+1</f>
         <v>83</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="30" t="s">
         <v>355</v>
       </c>
       <c r="C93" s="18"/>
@@ -14666,11 +14682,11 @@
       <c r="AB93" s="18"/>
     </row>
     <row r="94" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="28">
+      <c r="A94" s="25">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="30" t="s">
         <v>356</v>
       </c>
       <c r="C94" s="18"/>
@@ -14701,11 +14717,11 @@
       <c r="AB94" s="18"/>
     </row>
     <row r="95" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="28">
+      <c r="A95" s="25">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="B95" s="26" t="s">
+      <c r="B95" s="30" t="s">
         <v>357</v>
       </c>
       <c r="C95" s="18"/>
@@ -14736,11 +14752,11 @@
       <c r="AB95" s="18"/>
     </row>
     <row r="96" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="28">
+      <c r="A96" s="25">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="B96" s="26" t="s">
+      <c r="B96" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C96" s="18"/>
@@ -14771,11 +14787,11 @@
       <c r="AB96" s="18"/>
     </row>
     <row r="97" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="28">
+      <c r="A97" s="25">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="B97" s="26" t="s">
+      <c r="B97" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C97" s="18"/>
@@ -14806,11 +14822,11 @@
       <c r="AB97" s="18"/>
     </row>
     <row r="98" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="28">
+      <c r="A98" s="25">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="B98" s="30" t="s">
         <v>104</v>
       </c>
       <c r="C98" s="18"/>
@@ -14841,11 +14857,11 @@
       <c r="AB98" s="18"/>
     </row>
     <row r="99" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="28">
+      <c r="A99" s="25">
         <f t="shared" si="4"/>
         <v>89</v>
       </c>
-      <c r="B99" s="26" t="s">
+      <c r="B99" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C99" s="18"/>
@@ -14876,11 +14892,11 @@
       <c r="AB99" s="18"/>
     </row>
     <row r="100" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="28">
+      <c r="A100" s="25">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="30" t="s">
         <v>110</v>
       </c>
       <c r="C100" s="18"/>
@@ -14911,11 +14927,11 @@
       <c r="AB100" s="18"/>
     </row>
     <row r="101" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="28">
+      <c r="A101" s="25">
         <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C101" s="18"/>
@@ -14946,11 +14962,11 @@
       <c r="AB101" s="18"/>
     </row>
     <row r="102" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="28">
+      <c r="A102" s="25">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="B102" s="26" t="s">
+      <c r="B102" s="30" t="s">
         <v>88</v>
       </c>
       <c r="C102" s="18"/>
@@ -14981,11 +14997,11 @@
       <c r="AB102" s="18"/>
     </row>
     <row r="103" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="28">
+      <c r="A103" s="25">
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="B103" s="26" t="s">
+      <c r="B103" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C103" s="18"/>
@@ -15016,11 +15032,11 @@
       <c r="AB103" s="18"/>
     </row>
     <row r="104" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="28">
+      <c r="A104" s="25">
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="B104" s="26" t="s">
+      <c r="B104" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C104" s="18"/>
@@ -15051,11 +15067,11 @@
       <c r="AB104" s="18"/>
     </row>
     <row r="105" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="28">
+      <c r="A105" s="25">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="B105" s="26" t="s">
+      <c r="B105" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C105" s="18"/>
@@ -15086,11 +15102,11 @@
       <c r="AB105" s="18"/>
     </row>
     <row r="106" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="28">
+      <c r="A106" s="25">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="B106" s="26" t="s">
+      <c r="B106" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C106" s="18"/>
@@ -15121,11 +15137,11 @@
       <c r="AB106" s="18"/>
     </row>
     <row r="107" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="28">
+      <c r="A107" s="25">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="B107" s="26" t="s">
+      <c r="B107" s="30" t="s">
         <v>93</v>
       </c>
       <c r="C107" s="18"/>
@@ -15156,11 +15172,11 @@
       <c r="AB107" s="18"/>
     </row>
     <row r="108" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="28">
+      <c r="A108" s="25">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="B108" s="26" t="s">
+      <c r="B108" s="30" t="s">
         <v>70</v>
       </c>
       <c r="C108" s="18"/>
@@ -15191,11 +15207,11 @@
       <c r="AB108" s="18"/>
     </row>
     <row r="109" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="28">
+      <c r="A109" s="25">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="B109" s="26" t="s">
+      <c r="B109" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C109" s="18"/>
@@ -15226,11 +15242,11 @@
       <c r="AB109" s="18"/>
     </row>
     <row r="110" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="28">
+      <c r="A110" s="25">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="B110" s="26" t="s">
+      <c r="B110" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C110" s="18"/>
@@ -15265,93 +15281,93 @@
         <v>409</v>
       </c>
     </row>
-    <row r="112" spans="1:28" s="15" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="27"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="14">
+    <row r="112" spans="1:28" s="27" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="24"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="26">
         <v>44381</v>
       </c>
-      <c r="D112" s="14">
+      <c r="D112" s="26">
         <v>44388</v>
       </c>
-      <c r="E112" s="14">
+      <c r="E112" s="26">
         <v>44395</v>
       </c>
-      <c r="F112" s="14">
+      <c r="F112" s="26">
         <v>44402</v>
       </c>
-      <c r="G112" s="14">
+      <c r="G112" s="26">
         <v>44409</v>
       </c>
-      <c r="H112" s="14">
+      <c r="H112" s="26">
         <v>44416</v>
       </c>
-      <c r="I112" s="14">
+      <c r="I112" s="26">
         <v>44423</v>
       </c>
-      <c r="J112" s="14">
+      <c r="J112" s="26">
         <v>44430</v>
       </c>
-      <c r="K112" s="14">
+      <c r="K112" s="26">
         <v>44437</v>
       </c>
-      <c r="L112" s="14">
+      <c r="L112" s="26">
         <v>44444</v>
       </c>
-      <c r="M112" s="14">
+      <c r="M112" s="26">
         <v>44451</v>
       </c>
-      <c r="N112" s="14">
+      <c r="N112" s="26">
         <v>44458</v>
       </c>
-      <c r="O112" s="14">
+      <c r="O112" s="26">
         <v>44465</v>
       </c>
-      <c r="P112" s="14">
+      <c r="P112" s="26">
         <v>44472</v>
       </c>
-      <c r="Q112" s="14">
+      <c r="Q112" s="26">
         <v>44479</v>
       </c>
-      <c r="R112" s="14">
+      <c r="R112" s="26">
         <v>44486</v>
       </c>
-      <c r="S112" s="14">
+      <c r="S112" s="26">
         <v>44493</v>
       </c>
-      <c r="T112" s="14">
+      <c r="T112" s="26">
         <v>44500</v>
       </c>
-      <c r="U112" s="14">
+      <c r="U112" s="26">
         <v>44507</v>
       </c>
-      <c r="V112" s="14">
+      <c r="V112" s="26">
         <v>44514</v>
       </c>
-      <c r="W112" s="14">
+      <c r="W112" s="26">
         <v>44521</v>
       </c>
-      <c r="X112" s="14">
+      <c r="X112" s="26">
         <v>44528</v>
       </c>
-      <c r="Y112" s="14">
+      <c r="Y112" s="26">
         <v>44535</v>
       </c>
-      <c r="Z112" s="14">
+      <c r="Z112" s="26">
         <v>44542</v>
       </c>
-      <c r="AA112" s="14">
+      <c r="AA112" s="26">
         <v>44549</v>
       </c>
-      <c r="AB112" s="14">
+      <c r="AB112" s="26">
         <v>44556</v>
       </c>
     </row>
     <row r="113" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="28">
+      <c r="A113" s="25">
         <v>101</v>
       </c>
-      <c r="B113" s="26" t="s">
+      <c r="B113" s="30" t="s">
         <v>353</v>
       </c>
       <c r="C113" s="18"/>
@@ -15382,11 +15398,11 @@
       <c r="AB113" s="18"/>
     </row>
     <row r="114" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="28">
+      <c r="A114" s="25">
         <f>A113+1</f>
         <v>102</v>
       </c>
-      <c r="B114" s="26" t="s">
+      <c r="B114" s="30" t="s">
         <v>354</v>
       </c>
       <c r="C114" s="18"/>
@@ -15417,11 +15433,11 @@
       <c r="AB114" s="18"/>
     </row>
     <row r="115" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="28">
+      <c r="A115" s="25">
         <f t="shared" ref="A115:A132" si="5">A114+1</f>
         <v>103</v>
       </c>
-      <c r="B115" s="26" t="s">
+      <c r="B115" s="30" t="s">
         <v>355</v>
       </c>
       <c r="C115" s="18"/>
@@ -15452,11 +15468,11 @@
       <c r="AB115" s="18"/>
     </row>
     <row r="116" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="28">
+      <c r="A116" s="25">
         <f t="shared" si="5"/>
         <v>104</v>
       </c>
-      <c r="B116" s="26" t="s">
+      <c r="B116" s="30" t="s">
         <v>356</v>
       </c>
       <c r="C116" s="18"/>
@@ -15487,11 +15503,11 @@
       <c r="AB116" s="18"/>
     </row>
     <row r="117" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="28">
+      <c r="A117" s="25">
         <f t="shared" si="5"/>
         <v>105</v>
       </c>
-      <c r="B117" s="26" t="s">
+      <c r="B117" s="30" t="s">
         <v>357</v>
       </c>
       <c r="C117" s="18"/>
@@ -15522,11 +15538,11 @@
       <c r="AB117" s="18"/>
     </row>
     <row r="118" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="28">
+      <c r="A118" s="25">
         <f t="shared" si="5"/>
         <v>106</v>
       </c>
-      <c r="B118" s="26" t="s">
+      <c r="B118" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C118" s="18"/>
@@ -15557,11 +15573,11 @@
       <c r="AB118" s="18"/>
     </row>
     <row r="119" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="28">
+      <c r="A119" s="25">
         <f t="shared" si="5"/>
         <v>107</v>
       </c>
-      <c r="B119" s="26" t="s">
+      <c r="B119" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C119" s="18"/>
@@ -15592,11 +15608,11 @@
       <c r="AB119" s="18"/>
     </row>
     <row r="120" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="28">
+      <c r="A120" s="25">
         <f t="shared" si="5"/>
         <v>108</v>
       </c>
-      <c r="B120" s="26" t="s">
+      <c r="B120" s="30" t="s">
         <v>104</v>
       </c>
       <c r="C120" s="18"/>
@@ -15627,11 +15643,11 @@
       <c r="AB120" s="18"/>
     </row>
     <row r="121" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="28">
+      <c r="A121" s="25">
         <f t="shared" si="5"/>
         <v>109</v>
       </c>
-      <c r="B121" s="26" t="s">
+      <c r="B121" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C121" s="18"/>
@@ -15662,11 +15678,11 @@
       <c r="AB121" s="18"/>
     </row>
     <row r="122" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="28">
+      <c r="A122" s="25">
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="B122" s="26" t="s">
+      <c r="B122" s="30" t="s">
         <v>110</v>
       </c>
       <c r="C122" s="18"/>
@@ -15697,11 +15713,11 @@
       <c r="AB122" s="18"/>
     </row>
     <row r="123" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="28">
+      <c r="A123" s="25">
         <f t="shared" si="5"/>
         <v>111</v>
       </c>
-      <c r="B123" s="26" t="s">
+      <c r="B123" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C123" s="18"/>
@@ -15732,11 +15748,11 @@
       <c r="AB123" s="18"/>
     </row>
     <row r="124" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="28">
+      <c r="A124" s="25">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="B124" s="26" t="s">
+      <c r="B124" s="30" t="s">
         <v>88</v>
       </c>
       <c r="C124" s="18"/>
@@ -15767,11 +15783,11 @@
       <c r="AB124" s="18"/>
     </row>
     <row r="125" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="28">
+      <c r="A125" s="25">
         <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="B125" s="26" t="s">
+      <c r="B125" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C125" s="18"/>
@@ -15802,11 +15818,11 @@
       <c r="AB125" s="18"/>
     </row>
     <row r="126" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="28">
+      <c r="A126" s="25">
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="B126" s="26" t="s">
+      <c r="B126" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C126" s="18"/>
@@ -15837,11 +15853,11 @@
       <c r="AB126" s="18"/>
     </row>
     <row r="127" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="28">
+      <c r="A127" s="25">
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="B127" s="26" t="s">
+      <c r="B127" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C127" s="18"/>
@@ -15872,11 +15888,11 @@
       <c r="AB127" s="18"/>
     </row>
     <row r="128" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="28">
+      <c r="A128" s="25">
         <f t="shared" si="5"/>
         <v>116</v>
       </c>
-      <c r="B128" s="26" t="s">
+      <c r="B128" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C128" s="18"/>
@@ -15907,11 +15923,11 @@
       <c r="AB128" s="18"/>
     </row>
     <row r="129" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="28">
+      <c r="A129" s="25">
         <f t="shared" si="5"/>
         <v>117</v>
       </c>
-      <c r="B129" s="26" t="s">
+      <c r="B129" s="30" t="s">
         <v>93</v>
       </c>
       <c r="C129" s="18"/>
@@ -15942,11 +15958,11 @@
       <c r="AB129" s="18"/>
     </row>
     <row r="130" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="28">
+      <c r="A130" s="25">
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
-      <c r="B130" s="26" t="s">
+      <c r="B130" s="30" t="s">
         <v>70</v>
       </c>
       <c r="C130" s="18"/>
@@ -15977,11 +15993,11 @@
       <c r="AB130" s="18"/>
     </row>
     <row r="131" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="28">
+      <c r="A131" s="25">
         <f t="shared" si="5"/>
         <v>119</v>
       </c>
-      <c r="B131" s="26" t="s">
+      <c r="B131" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C131" s="18"/>
@@ -16012,11 +16028,11 @@
       <c r="AB131" s="18"/>
     </row>
     <row r="132" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="28">
+      <c r="A132" s="25">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="B132" s="26" t="s">
+      <c r="B132" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C132" s="18"/>
@@ -16051,93 +16067,93 @@
         <v>409</v>
       </c>
     </row>
-    <row r="134" spans="1:28" s="15" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="27"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="14">
+    <row r="134" spans="1:28" s="27" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="24"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="26">
         <v>44381</v>
       </c>
-      <c r="D134" s="14">
+      <c r="D134" s="26">
         <v>44388</v>
       </c>
-      <c r="E134" s="14">
+      <c r="E134" s="26">
         <v>44395</v>
       </c>
-      <c r="F134" s="14">
+      <c r="F134" s="26">
         <v>44402</v>
       </c>
-      <c r="G134" s="14">
+      <c r="G134" s="26">
         <v>44409</v>
       </c>
-      <c r="H134" s="14">
+      <c r="H134" s="26">
         <v>44416</v>
       </c>
-      <c r="I134" s="14">
+      <c r="I134" s="26">
         <v>44423</v>
       </c>
-      <c r="J134" s="14">
+      <c r="J134" s="26">
         <v>44430</v>
       </c>
-      <c r="K134" s="14">
+      <c r="K134" s="26">
         <v>44437</v>
       </c>
-      <c r="L134" s="14">
+      <c r="L134" s="26">
         <v>44444</v>
       </c>
-      <c r="M134" s="14">
+      <c r="M134" s="26">
         <v>44451</v>
       </c>
-      <c r="N134" s="14">
+      <c r="N134" s="26">
         <v>44458</v>
       </c>
-      <c r="O134" s="14">
+      <c r="O134" s="26">
         <v>44465</v>
       </c>
-      <c r="P134" s="14">
+      <c r="P134" s="26">
         <v>44472</v>
       </c>
-      <c r="Q134" s="14">
+      <c r="Q134" s="26">
         <v>44479</v>
       </c>
-      <c r="R134" s="14">
+      <c r="R134" s="26">
         <v>44486</v>
       </c>
-      <c r="S134" s="14">
+      <c r="S134" s="26">
         <v>44493</v>
       </c>
-      <c r="T134" s="14">
+      <c r="T134" s="26">
         <v>44500</v>
       </c>
-      <c r="U134" s="14">
+      <c r="U134" s="26">
         <v>44507</v>
       </c>
-      <c r="V134" s="14">
+      <c r="V134" s="26">
         <v>44514</v>
       </c>
-      <c r="W134" s="14">
+      <c r="W134" s="26">
         <v>44521</v>
       </c>
-      <c r="X134" s="14">
+      <c r="X134" s="26">
         <v>44528</v>
       </c>
-      <c r="Y134" s="14">
+      <c r="Y134" s="26">
         <v>44535</v>
       </c>
-      <c r="Z134" s="14">
+      <c r="Z134" s="26">
         <v>44542</v>
       </c>
-      <c r="AA134" s="14">
+      <c r="AA134" s="26">
         <v>44549</v>
       </c>
-      <c r="AB134" s="14">
+      <c r="AB134" s="26">
         <v>44556</v>
       </c>
     </row>
     <row r="135" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="28">
+      <c r="A135" s="25">
         <v>121</v>
       </c>
-      <c r="B135" s="26" t="s">
+      <c r="B135" s="30" t="s">
         <v>353</v>
       </c>
       <c r="C135" s="18"/>
@@ -16168,11 +16184,11 @@
       <c r="AB135" s="18"/>
     </row>
     <row r="136" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="28">
+      <c r="A136" s="25">
         <f>A135+1</f>
         <v>122</v>
       </c>
-      <c r="B136" s="26" t="s">
+      <c r="B136" s="30" t="s">
         <v>354</v>
       </c>
       <c r="C136" s="18"/>
@@ -16203,11 +16219,11 @@
       <c r="AB136" s="18"/>
     </row>
     <row r="137" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="28">
+      <c r="A137" s="25">
         <f t="shared" ref="A137:A154" si="6">A136+1</f>
         <v>123</v>
       </c>
-      <c r="B137" s="26" t="s">
+      <c r="B137" s="30" t="s">
         <v>355</v>
       </c>
       <c r="C137" s="18"/>
@@ -16238,11 +16254,11 @@
       <c r="AB137" s="18"/>
     </row>
     <row r="138" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="28">
+      <c r="A138" s="25">
         <f t="shared" si="6"/>
         <v>124</v>
       </c>
-      <c r="B138" s="26" t="s">
+      <c r="B138" s="30" t="s">
         <v>356</v>
       </c>
       <c r="C138" s="18"/>
@@ -16273,11 +16289,11 @@
       <c r="AB138" s="18"/>
     </row>
     <row r="139" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="28">
+      <c r="A139" s="25">
         <f t="shared" si="6"/>
         <v>125</v>
       </c>
-      <c r="B139" s="26" t="s">
+      <c r="B139" s="30" t="s">
         <v>357</v>
       </c>
       <c r="C139" s="18"/>
@@ -16308,11 +16324,11 @@
       <c r="AB139" s="18"/>
     </row>
     <row r="140" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="28">
+      <c r="A140" s="25">
         <f t="shared" si="6"/>
         <v>126</v>
       </c>
-      <c r="B140" s="26" t="s">
+      <c r="B140" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C140" s="18"/>
@@ -16343,11 +16359,11 @@
       <c r="AB140" s="18"/>
     </row>
     <row r="141" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="28">
+      <c r="A141" s="25">
         <f t="shared" si="6"/>
         <v>127</v>
       </c>
-      <c r="B141" s="26" t="s">
+      <c r="B141" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C141" s="18"/>
@@ -16378,11 +16394,11 @@
       <c r="AB141" s="18"/>
     </row>
     <row r="142" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="28">
+      <c r="A142" s="25">
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
-      <c r="B142" s="26" t="s">
+      <c r="B142" s="30" t="s">
         <v>104</v>
       </c>
       <c r="C142" s="18"/>
@@ -16413,11 +16429,11 @@
       <c r="AB142" s="18"/>
     </row>
     <row r="143" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="28">
+      <c r="A143" s="25">
         <f t="shared" si="6"/>
         <v>129</v>
       </c>
-      <c r="B143" s="26" t="s">
+      <c r="B143" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C143" s="18"/>
@@ -16448,11 +16464,11 @@
       <c r="AB143" s="18"/>
     </row>
     <row r="144" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="28">
+      <c r="A144" s="25">
         <f t="shared" si="6"/>
         <v>130</v>
       </c>
-      <c r="B144" s="26" t="s">
+      <c r="B144" s="30" t="s">
         <v>110</v>
       </c>
       <c r="C144" s="18"/>
@@ -16483,11 +16499,11 @@
       <c r="AB144" s="18"/>
     </row>
     <row r="145" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="28">
+      <c r="A145" s="25">
         <f t="shared" si="6"/>
         <v>131</v>
       </c>
-      <c r="B145" s="26" t="s">
+      <c r="B145" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C145" s="18"/>
@@ -16518,11 +16534,11 @@
       <c r="AB145" s="18"/>
     </row>
     <row r="146" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="28">
+      <c r="A146" s="25">
         <f t="shared" si="6"/>
         <v>132</v>
       </c>
-      <c r="B146" s="26" t="s">
+      <c r="B146" s="30" t="s">
         <v>88</v>
       </c>
       <c r="C146" s="18"/>
@@ -16553,11 +16569,11 @@
       <c r="AB146" s="18"/>
     </row>
     <row r="147" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="28">
+      <c r="A147" s="25">
         <f t="shared" si="6"/>
         <v>133</v>
       </c>
-      <c r="B147" s="26" t="s">
+      <c r="B147" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C147" s="18"/>
@@ -16588,11 +16604,11 @@
       <c r="AB147" s="18"/>
     </row>
     <row r="148" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="28">
+      <c r="A148" s="25">
         <f t="shared" si="6"/>
         <v>134</v>
       </c>
-      <c r="B148" s="26" t="s">
+      <c r="B148" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C148" s="18"/>
@@ -16623,11 +16639,11 @@
       <c r="AB148" s="18"/>
     </row>
     <row r="149" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="28">
+      <c r="A149" s="25">
         <f t="shared" si="6"/>
         <v>135</v>
       </c>
-      <c r="B149" s="26" t="s">
+      <c r="B149" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C149" s="18"/>
@@ -16658,11 +16674,11 @@
       <c r="AB149" s="18"/>
     </row>
     <row r="150" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="28">
+      <c r="A150" s="25">
         <f t="shared" si="6"/>
         <v>136</v>
       </c>
-      <c r="B150" s="26" t="s">
+      <c r="B150" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C150" s="18"/>
@@ -16693,11 +16709,11 @@
       <c r="AB150" s="18"/>
     </row>
     <row r="151" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="28">
+      <c r="A151" s="25">
         <f t="shared" si="6"/>
         <v>137</v>
       </c>
-      <c r="B151" s="26" t="s">
+      <c r="B151" s="30" t="s">
         <v>93</v>
       </c>
       <c r="C151" s="18"/>
@@ -16728,11 +16744,11 @@
       <c r="AB151" s="18"/>
     </row>
     <row r="152" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="28">
+      <c r="A152" s="25">
         <f t="shared" si="6"/>
         <v>138</v>
       </c>
-      <c r="B152" s="26" t="s">
+      <c r="B152" s="30" t="s">
         <v>70</v>
       </c>
       <c r="C152" s="18"/>
@@ -16763,11 +16779,11 @@
       <c r="AB152" s="18"/>
     </row>
     <row r="153" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="28">
+      <c r="A153" s="25">
         <f t="shared" si="6"/>
         <v>139</v>
       </c>
-      <c r="B153" s="26" t="s">
+      <c r="B153" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C153" s="18"/>
@@ -16798,11 +16814,11 @@
       <c r="AB153" s="18"/>
     </row>
     <row r="154" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="28">
+      <c r="A154" s="25">
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
-      <c r="B154" s="26" t="s">
+      <c r="B154" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C154" s="18"/>
@@ -16837,93 +16853,93 @@
         <v>409</v>
       </c>
     </row>
-    <row r="156" spans="1:28" s="15" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="27"/>
-      <c r="B156" s="25"/>
-      <c r="C156" s="14">
+    <row r="156" spans="1:28" s="27" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="24"/>
+      <c r="B156" s="29"/>
+      <c r="C156" s="26">
         <v>44381</v>
       </c>
-      <c r="D156" s="14">
+      <c r="D156" s="26">
         <v>44388</v>
       </c>
-      <c r="E156" s="14">
+      <c r="E156" s="26">
         <v>44395</v>
       </c>
-      <c r="F156" s="14">
+      <c r="F156" s="26">
         <v>44402</v>
       </c>
-      <c r="G156" s="14">
+      <c r="G156" s="26">
         <v>44409</v>
       </c>
-      <c r="H156" s="14">
+      <c r="H156" s="26">
         <v>44416</v>
       </c>
-      <c r="I156" s="14">
+      <c r="I156" s="26">
         <v>44423</v>
       </c>
-      <c r="J156" s="14">
+      <c r="J156" s="26">
         <v>44430</v>
       </c>
-      <c r="K156" s="14">
+      <c r="K156" s="26">
         <v>44437</v>
       </c>
-      <c r="L156" s="14">
+      <c r="L156" s="26">
         <v>44444</v>
       </c>
-      <c r="M156" s="14">
+      <c r="M156" s="26">
         <v>44451</v>
       </c>
-      <c r="N156" s="14">
+      <c r="N156" s="26">
         <v>44458</v>
       </c>
-      <c r="O156" s="14">
+      <c r="O156" s="26">
         <v>44465</v>
       </c>
-      <c r="P156" s="14">
+      <c r="P156" s="26">
         <v>44472</v>
       </c>
-      <c r="Q156" s="14">
+      <c r="Q156" s="26">
         <v>44479</v>
       </c>
-      <c r="R156" s="14">
+      <c r="R156" s="26">
         <v>44486</v>
       </c>
-      <c r="S156" s="14">
+      <c r="S156" s="26">
         <v>44493</v>
       </c>
-      <c r="T156" s="14">
+      <c r="T156" s="26">
         <v>44500</v>
       </c>
-      <c r="U156" s="14">
+      <c r="U156" s="26">
         <v>44507</v>
       </c>
-      <c r="V156" s="14">
+      <c r="V156" s="26">
         <v>44514</v>
       </c>
-      <c r="W156" s="14">
+      <c r="W156" s="26">
         <v>44521</v>
       </c>
-      <c r="X156" s="14">
+      <c r="X156" s="26">
         <v>44528</v>
       </c>
-      <c r="Y156" s="14">
+      <c r="Y156" s="26">
         <v>44535</v>
       </c>
-      <c r="Z156" s="14">
+      <c r="Z156" s="26">
         <v>44542</v>
       </c>
-      <c r="AA156" s="14">
+      <c r="AA156" s="26">
         <v>44549</v>
       </c>
-      <c r="AB156" s="14">
+      <c r="AB156" s="26">
         <v>44556</v>
       </c>
     </row>
     <row r="157" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="28">
+      <c r="A157" s="25">
         <v>141</v>
       </c>
-      <c r="B157" s="26" t="s">
+      <c r="B157" s="30" t="s">
         <v>353</v>
       </c>
       <c r="C157" s="18"/>
@@ -16954,11 +16970,11 @@
       <c r="AB157" s="18"/>
     </row>
     <row r="158" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="28">
+      <c r="A158" s="25">
         <f>A157+1</f>
         <v>142</v>
       </c>
-      <c r="B158" s="26" t="s">
+      <c r="B158" s="30" t="s">
         <v>354</v>
       </c>
       <c r="C158" s="18"/>
@@ -16989,11 +17005,11 @@
       <c r="AB158" s="18"/>
     </row>
     <row r="159" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="28">
+      <c r="A159" s="25">
         <f t="shared" ref="A159:A176" si="7">A158+1</f>
         <v>143</v>
       </c>
-      <c r="B159" s="26" t="s">
+      <c r="B159" s="30" t="s">
         <v>355</v>
       </c>
       <c r="C159" s="18"/>
@@ -17024,11 +17040,11 @@
       <c r="AB159" s="18"/>
     </row>
     <row r="160" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="28">
+      <c r="A160" s="25">
         <f t="shared" si="7"/>
         <v>144</v>
       </c>
-      <c r="B160" s="26" t="s">
+      <c r="B160" s="30" t="s">
         <v>356</v>
       </c>
       <c r="C160" s="18"/>
@@ -17059,11 +17075,11 @@
       <c r="AB160" s="18"/>
     </row>
     <row r="161" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="28">
+      <c r="A161" s="25">
         <f t="shared" si="7"/>
         <v>145</v>
       </c>
-      <c r="B161" s="26" t="s">
+      <c r="B161" s="30" t="s">
         <v>357</v>
       </c>
       <c r="C161" s="18"/>
@@ -17094,11 +17110,11 @@
       <c r="AB161" s="18"/>
     </row>
     <row r="162" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="28">
+      <c r="A162" s="25">
         <f t="shared" si="7"/>
         <v>146</v>
       </c>
-      <c r="B162" s="26" t="s">
+      <c r="B162" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C162" s="18"/>
@@ -17129,11 +17145,11 @@
       <c r="AB162" s="18"/>
     </row>
     <row r="163" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="28">
+      <c r="A163" s="25">
         <f t="shared" si="7"/>
         <v>147</v>
       </c>
-      <c r="B163" s="26" t="s">
+      <c r="B163" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C163" s="18"/>
@@ -17164,11 +17180,11 @@
       <c r="AB163" s="18"/>
     </row>
     <row r="164" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="28">
+      <c r="A164" s="25">
         <f t="shared" si="7"/>
         <v>148</v>
       </c>
-      <c r="B164" s="26" t="s">
+      <c r="B164" s="30" t="s">
         <v>104</v>
       </c>
       <c r="C164" s="18"/>
@@ -17199,11 +17215,11 @@
       <c r="AB164" s="18"/>
     </row>
     <row r="165" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="28">
+      <c r="A165" s="25">
         <f t="shared" si="7"/>
         <v>149</v>
       </c>
-      <c r="B165" s="26" t="s">
+      <c r="B165" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C165" s="18"/>
@@ -17234,11 +17250,11 @@
       <c r="AB165" s="18"/>
     </row>
     <row r="166" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="28">
+      <c r="A166" s="25">
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="B166" s="26" t="s">
+      <c r="B166" s="30" t="s">
         <v>110</v>
       </c>
       <c r="C166" s="18"/>
@@ -17269,11 +17285,11 @@
       <c r="AB166" s="18"/>
     </row>
     <row r="167" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="28">
+      <c r="A167" s="25">
         <f t="shared" si="7"/>
         <v>151</v>
       </c>
-      <c r="B167" s="26" t="s">
+      <c r="B167" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C167" s="18"/>
@@ -17304,11 +17320,11 @@
       <c r="AB167" s="18"/>
     </row>
     <row r="168" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="28">
+      <c r="A168" s="25">
         <f t="shared" si="7"/>
         <v>152</v>
       </c>
-      <c r="B168" s="26" t="s">
+      <c r="B168" s="30" t="s">
         <v>88</v>
       </c>
       <c r="C168" s="18"/>
@@ -17339,11 +17355,11 @@
       <c r="AB168" s="18"/>
     </row>
     <row r="169" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="28">
+      <c r="A169" s="25">
         <f t="shared" si="7"/>
         <v>153</v>
       </c>
-      <c r="B169" s="26" t="s">
+      <c r="B169" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C169" s="18"/>
@@ -17374,11 +17390,11 @@
       <c r="AB169" s="18"/>
     </row>
     <row r="170" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="28">
+      <c r="A170" s="25">
         <f t="shared" si="7"/>
         <v>154</v>
       </c>
-      <c r="B170" s="26" t="s">
+      <c r="B170" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C170" s="18"/>
@@ -17409,11 +17425,11 @@
       <c r="AB170" s="18"/>
     </row>
     <row r="171" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="28">
+      <c r="A171" s="25">
         <f t="shared" si="7"/>
         <v>155</v>
       </c>
-      <c r="B171" s="26" t="s">
+      <c r="B171" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C171" s="18"/>
@@ -17444,11 +17460,11 @@
       <c r="AB171" s="18"/>
     </row>
     <row r="172" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="28">
+      <c r="A172" s="25">
         <f t="shared" si="7"/>
         <v>156</v>
       </c>
-      <c r="B172" s="26" t="s">
+      <c r="B172" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C172" s="18"/>
@@ -17479,11 +17495,11 @@
       <c r="AB172" s="18"/>
     </row>
     <row r="173" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="28">
+      <c r="A173" s="25">
         <f t="shared" si="7"/>
         <v>157</v>
       </c>
-      <c r="B173" s="26" t="s">
+      <c r="B173" s="30" t="s">
         <v>93</v>
       </c>
       <c r="C173" s="18"/>
@@ -17514,11 +17530,11 @@
       <c r="AB173" s="18"/>
     </row>
     <row r="174" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="28">
+      <c r="A174" s="25">
         <f t="shared" si="7"/>
         <v>158</v>
       </c>
-      <c r="B174" s="26" t="s">
+      <c r="B174" s="30" t="s">
         <v>70</v>
       </c>
       <c r="C174" s="18"/>
@@ -17549,11 +17565,11 @@
       <c r="AB174" s="18"/>
     </row>
     <row r="175" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="28">
+      <c r="A175" s="25">
         <f t="shared" si="7"/>
         <v>159</v>
       </c>
-      <c r="B175" s="26" t="s">
+      <c r="B175" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C175" s="18"/>
@@ -17584,11 +17600,11 @@
       <c r="AB175" s="18"/>
     </row>
     <row r="176" spans="1:28" s="19" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="28">
+      <c r="A176" s="25">
         <f t="shared" si="7"/>
         <v>160</v>
       </c>
-      <c r="B176" s="26" t="s">
+      <c r="B176" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C176" s="18"/>
@@ -17623,93 +17639,93 @@
         <v>409</v>
       </c>
     </row>
-    <row r="178" spans="1:28" s="15" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="27"/>
-      <c r="B178" s="25"/>
-      <c r="C178" s="14">
+    <row r="178" spans="1:28" s="27" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="24"/>
+      <c r="B178" s="29"/>
+      <c r="C178" s="26">
         <v>44381</v>
       </c>
-      <c r="D178" s="14">
+      <c r="D178" s="26">
         <v>44388</v>
       </c>
-      <c r="E178" s="14">
+      <c r="E178" s="26">
         <v>44395</v>
       </c>
-      <c r="F178" s="14">
+      <c r="F178" s="26">
         <v>44402</v>
       </c>
-      <c r="G178" s="14">
+      <c r="G178" s="26">
         <v>44409</v>
       </c>
-      <c r="H178" s="14">
+      <c r="H178" s="26">
         <v>44416</v>
       </c>
-      <c r="I178" s="14">
+      <c r="I178" s="26">
         <v>44423</v>
       </c>
-      <c r="J178" s="14">
+      <c r="J178" s="26">
         <v>44430</v>
       </c>
-      <c r="K178" s="14">
+      <c r="K178" s="26">
         <v>44437</v>
       </c>
-      <c r="L178" s="14">
+      <c r="L178" s="26">
         <v>44444</v>
       </c>
-      <c r="M178" s="14">
+      <c r="M178" s="26">
         <v>44451</v>
       </c>
-      <c r="N178" s="14">
+      <c r="N178" s="26">
         <v>44458</v>
       </c>
-      <c r="O178" s="14">
+      <c r="O178" s="26">
         <v>44465</v>
       </c>
-      <c r="P178" s="14">
+      <c r="P178" s="26">
         <v>44472</v>
       </c>
-      <c r="Q178" s="14">
+      <c r="Q178" s="26">
         <v>44479</v>
       </c>
-      <c r="R178" s="14">
+      <c r="R178" s="26">
         <v>44486</v>
       </c>
-      <c r="S178" s="14">
+      <c r="S178" s="26">
         <v>44493</v>
       </c>
-      <c r="T178" s="14">
+      <c r="T178" s="26">
         <v>44500</v>
       </c>
-      <c r="U178" s="14">
+      <c r="U178" s="26">
         <v>44507</v>
       </c>
-      <c r="V178" s="14">
+      <c r="V178" s="26">
         <v>44514</v>
       </c>
-      <c r="W178" s="14">
+      <c r="W178" s="26">
         <v>44521</v>
       </c>
-      <c r="X178" s="14">
+      <c r="X178" s="26">
         <v>44528</v>
       </c>
-      <c r="Y178" s="14">
+      <c r="Y178" s="26">
         <v>44535</v>
       </c>
-      <c r="Z178" s="14">
+      <c r="Z178" s="26">
         <v>44542</v>
       </c>
-      <c r="AA178" s="14">
+      <c r="AA178" s="26">
         <v>44549</v>
       </c>
-      <c r="AB178" s="14">
+      <c r="AB178" s="26">
         <v>44556</v>
       </c>
     </row>
     <row r="179" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="28">
+      <c r="A179" s="25">
         <v>161</v>
       </c>
-      <c r="B179" s="26" t="s">
+      <c r="B179" s="30" t="s">
         <v>353</v>
       </c>
       <c r="C179" s="18"/>
@@ -17740,11 +17756,11 @@
       <c r="AB179" s="18"/>
     </row>
     <row r="180" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="28">
+      <c r="A180" s="25">
         <f>A179+1</f>
         <v>162</v>
       </c>
-      <c r="B180" s="26" t="s">
+      <c r="B180" s="30" t="s">
         <v>354</v>
       </c>
       <c r="C180" s="18"/>
@@ -17775,11 +17791,11 @@
       <c r="AB180" s="18"/>
     </row>
     <row r="181" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="28">
+      <c r="A181" s="25">
         <f t="shared" ref="A181:A198" si="8">A180+1</f>
         <v>163</v>
       </c>
-      <c r="B181" s="26" t="s">
+      <c r="B181" s="30" t="s">
         <v>355</v>
       </c>
       <c r="C181" s="18"/>
@@ -17810,11 +17826,11 @@
       <c r="AB181" s="18"/>
     </row>
     <row r="182" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="28">
+      <c r="A182" s="25">
         <f t="shared" si="8"/>
         <v>164</v>
       </c>
-      <c r="B182" s="26" t="s">
+      <c r="B182" s="30" t="s">
         <v>356</v>
       </c>
       <c r="C182" s="18"/>
@@ -17845,11 +17861,11 @@
       <c r="AB182" s="18"/>
     </row>
     <row r="183" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="28">
+      <c r="A183" s="25">
         <f t="shared" si="8"/>
         <v>165</v>
       </c>
-      <c r="B183" s="26" t="s">
+      <c r="B183" s="30" t="s">
         <v>357</v>
       </c>
       <c r="C183" s="18"/>
@@ -17880,11 +17896,11 @@
       <c r="AB183" s="18"/>
     </row>
     <row r="184" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="28">
+      <c r="A184" s="25">
         <f t="shared" si="8"/>
         <v>166</v>
       </c>
-      <c r="B184" s="26" t="s">
+      <c r="B184" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C184" s="18"/>
@@ -17915,11 +17931,11 @@
       <c r="AB184" s="18"/>
     </row>
     <row r="185" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="28">
+      <c r="A185" s="25">
         <f t="shared" si="8"/>
         <v>167</v>
       </c>
-      <c r="B185" s="26" t="s">
+      <c r="B185" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C185" s="18"/>
@@ -17950,11 +17966,11 @@
       <c r="AB185" s="18"/>
     </row>
     <row r="186" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="28">
+      <c r="A186" s="25">
         <f t="shared" si="8"/>
         <v>168</v>
       </c>
-      <c r="B186" s="26" t="s">
+      <c r="B186" s="30" t="s">
         <v>104</v>
       </c>
       <c r="C186" s="18"/>
@@ -17985,11 +18001,11 @@
       <c r="AB186" s="18"/>
     </row>
     <row r="187" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="28">
+      <c r="A187" s="25">
         <f t="shared" si="8"/>
         <v>169</v>
       </c>
-      <c r="B187" s="26" t="s">
+      <c r="B187" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C187" s="18"/>
@@ -18020,11 +18036,11 @@
       <c r="AB187" s="18"/>
     </row>
     <row r="188" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="28">
+      <c r="A188" s="25">
         <f t="shared" si="8"/>
         <v>170</v>
       </c>
-      <c r="B188" s="26" t="s">
+      <c r="B188" s="30" t="s">
         <v>110</v>
       </c>
       <c r="C188" s="18"/>
@@ -18055,11 +18071,11 @@
       <c r="AB188" s="18"/>
     </row>
     <row r="189" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="28">
+      <c r="A189" s="25">
         <f t="shared" si="8"/>
         <v>171</v>
       </c>
-      <c r="B189" s="26" t="s">
+      <c r="B189" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C189" s="18"/>
@@ -18090,11 +18106,11 @@
       <c r="AB189" s="18"/>
     </row>
     <row r="190" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="28">
+      <c r="A190" s="25">
         <f t="shared" si="8"/>
         <v>172</v>
       </c>
-      <c r="B190" s="26" t="s">
+      <c r="B190" s="30" t="s">
         <v>88</v>
       </c>
       <c r="C190" s="18"/>
@@ -18125,11 +18141,11 @@
       <c r="AB190" s="18"/>
     </row>
     <row r="191" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="28">
+      <c r="A191" s="25">
         <f t="shared" si="8"/>
         <v>173</v>
       </c>
-      <c r="B191" s="26" t="s">
+      <c r="B191" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C191" s="18"/>
@@ -18160,11 +18176,11 @@
       <c r="AB191" s="18"/>
     </row>
     <row r="192" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="28">
+      <c r="A192" s="25">
         <f t="shared" si="8"/>
         <v>174</v>
       </c>
-      <c r="B192" s="26" t="s">
+      <c r="B192" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C192" s="18"/>
@@ -18195,11 +18211,11 @@
       <c r="AB192" s="18"/>
     </row>
     <row r="193" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="28">
+      <c r="A193" s="25">
         <f t="shared" si="8"/>
         <v>175</v>
       </c>
-      <c r="B193" s="26" t="s">
+      <c r="B193" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C193" s="18"/>
@@ -18230,11 +18246,11 @@
       <c r="AB193" s="18"/>
     </row>
     <row r="194" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="28">
+      <c r="A194" s="25">
         <f t="shared" si="8"/>
         <v>176</v>
       </c>
-      <c r="B194" s="26" t="s">
+      <c r="B194" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C194" s="18"/>
@@ -18265,11 +18281,11 @@
       <c r="AB194" s="18"/>
     </row>
     <row r="195" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="28">
+      <c r="A195" s="25">
         <f t="shared" si="8"/>
         <v>177</v>
       </c>
-      <c r="B195" s="26" t="s">
+      <c r="B195" s="30" t="s">
         <v>93</v>
       </c>
       <c r="C195" s="18"/>
@@ -18300,11 +18316,11 @@
       <c r="AB195" s="18"/>
     </row>
     <row r="196" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="28">
+      <c r="A196" s="25">
         <f t="shared" si="8"/>
         <v>178</v>
       </c>
-      <c r="B196" s="26" t="s">
+      <c r="B196" s="30" t="s">
         <v>70</v>
       </c>
       <c r="C196" s="18"/>
@@ -18335,11 +18351,11 @@
       <c r="AB196" s="18"/>
     </row>
     <row r="197" spans="1:28" s="19" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="28">
+      <c r="A197" s="25">
         <f t="shared" si="8"/>
         <v>179</v>
       </c>
-      <c r="B197" s="26" t="s">
+      <c r="B197" s="30" t="s">
         <v>132</v>
       </c>
       <c r="C197" s="18"/>
@@ -18370,11 +18386,11 @@
       <c r="AB197" s="18"/>
     </row>
     <row r="198" spans="1:28" s="19" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="28">
+      <c r="A198" s="25">
         <f t="shared" si="8"/>
         <v>180</v>
       </c>
-      <c r="B198" s="26" t="s">
+      <c r="B198" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C198" s="18"/>

--- a/2021年下半年度出席表.xlsx
+++ b/2021年下半年度出席表.xlsx
@@ -11336,13 +11336,13 @@
   <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="28" customWidth="1"/>
     <col min="3" max="28" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/2021年下半年度出席表.xlsx
+++ b/2021年下半年度出席表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="432">
   <si>
     <t>姓名</t>
   </si>
@@ -1261,6 +1261,94 @@
   </si>
   <si>
     <t>2021年7~12月出席表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主日牧師</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>張佩瀅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝旭成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>張兆嘉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳宜臻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳筠蓁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡侑霖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游淑華</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳俊皓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉廷驛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳蔚萱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Richard Blake</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍾日溢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂惠嫩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳重義</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王志維</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭詠琪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>林得元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳寶治</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡琇鈴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳承恩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周美麗</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1272,7 +1360,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1382,6 +1470,15 @@
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1517,7 +1614,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1608,6 +1705,24 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4514,8 +4629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB199"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11335,8 +11450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -11438,7 +11553,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -11472,9 +11587,7 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>354</v>
-      </c>
+      <c r="B4" s="36"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -11508,7 +11621,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>355</v>
+        <v>36</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -11543,7 +11656,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>356</v>
+        <v>104</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -11578,7 +11691,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>357</v>
+        <v>35</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -11613,7 +11726,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -11648,7 +11761,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -11683,7 +11796,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -11718,7 +11831,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -11753,7 +11866,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -11788,7 +11901,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -11823,7 +11936,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -11858,7 +11971,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -11893,7 +12006,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -11928,7 +12041,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -11963,7 +12076,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -11998,7 +12111,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>93</v>
+        <v>358</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -12033,7 +12146,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>70</v>
+        <v>357</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -12068,7 +12181,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -12102,8 +12215,8 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>76</v>
+      <c r="B22" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -12133,13 +12246,14 @@
       <c r="AB22" s="18"/>
     </row>
     <row r="23" spans="1:28" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="34"/>
       <c r="L23" s="16" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:28" s="27" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24"/>
-      <c r="B24" s="29"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="26">
         <v>44381</v>
       </c>
@@ -12224,7 +12338,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>353</v>
+        <v>156</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -12259,7 +12373,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>354</v>
+        <v>59</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -12294,7 +12408,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>355</v>
+        <v>95</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -12329,7 +12443,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>356</v>
+        <v>49</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -12364,7 +12478,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>357</v>
+        <v>148</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -12399,7 +12513,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -12434,7 +12548,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -12469,7 +12583,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -12504,7 +12618,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -12539,7 +12653,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
@@ -12574,7 +12688,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -12609,7 +12723,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>88</v>
+        <v>359</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -12644,7 +12758,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -12678,10 +12792,10 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B38" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="18"/>
+      <c r="B38" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="20"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
@@ -12713,8 +12827,8 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>33</v>
+      <c r="B39" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -12749,7 +12863,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -12784,7 +12898,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -12819,7 +12933,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -12854,7 +12968,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>132</v>
+        <v>360</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -12888,8 +13002,8 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B44" s="30" t="s">
-        <v>76</v>
+      <c r="B44" s="35" t="s">
+        <v>146</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -12919,13 +13033,14 @@
       <c r="AB44" s="18"/>
     </row>
     <row r="45" spans="1:28" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="34"/>
       <c r="L45" s="16" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:28" s="27" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
-      <c r="B46" s="29"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="26">
         <v>44381</v>
       </c>
@@ -13010,7 +13125,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -13045,7 +13160,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -13080,7 +13195,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -13115,7 +13230,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -13150,7 +13265,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -13185,7 +13300,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>16</v>
+        <v>366</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
@@ -13220,7 +13335,7 @@
         <v>47</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -13255,7 +13370,7 @@
         <v>48</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
@@ -13290,7 +13405,7 @@
         <v>49</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
@@ -13325,7 +13440,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>110</v>
+        <v>367</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
@@ -13360,7 +13475,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>25</v>
+        <v>368</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
@@ -13395,7 +13510,7 @@
         <v>52</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
@@ -13429,10 +13544,10 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="B59" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="18"/>
+      <c r="B59" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="C59" s="20"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
@@ -13464,8 +13579,8 @@
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="B60" s="30" t="s">
-        <v>51</v>
+      <c r="B60" s="29" t="s">
+        <v>106</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
@@ -13500,7 +13615,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -13535,7 +13650,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
@@ -13570,7 +13685,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
@@ -13605,7 +13720,7 @@
         <v>58</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
@@ -13640,7 +13755,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>132</v>
+        <v>376</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -13674,8 +13789,8 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="B66" s="30" t="s">
-        <v>76</v>
+      <c r="B66" s="35" t="s">
+        <v>377</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
@@ -13705,13 +13820,14 @@
       <c r="AB66" s="18"/>
     </row>
     <row r="67" spans="1:28" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="34"/>
       <c r="L67" s="16" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="68" spans="1:28" s="27" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
-      <c r="B68" s="29"/>
+      <c r="B68" s="35"/>
       <c r="C68" s="26">
         <v>44381</v>
       </c>
@@ -13796,7 +13912,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>353</v>
+        <v>126</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
@@ -13831,7 +13947,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
@@ -13866,7 +13982,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>355</v>
+        <v>129</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -13901,7 +14017,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
@@ -13936,7 +14052,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
@@ -13971,7 +14087,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>16</v>
+        <v>373</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
@@ -14006,7 +14122,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
@@ -14041,7 +14157,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>104</v>
+        <v>375</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
@@ -14075,10 +14191,10 @@
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="B77" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" s="18"/>
+      <c r="B77" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="20"/>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
       <c r="F77" s="18"/>
@@ -14110,8 +14226,8 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="B78" s="30" t="s">
-        <v>110</v>
+      <c r="B78" s="29" t="s">
+        <v>15</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
@@ -14146,7 +14262,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
@@ -14181,7 +14297,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
@@ -14216,7 +14332,7 @@
         <v>73</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
@@ -14251,7 +14367,7 @@
         <v>74</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
@@ -14286,7 +14402,7 @@
         <v>75</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
@@ -14321,7 +14437,7 @@
         <v>76</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="18"/>
@@ -14356,7 +14472,7 @@
         <v>77</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>93</v>
+        <v>383</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="18"/>
@@ -14391,7 +14507,7 @@
         <v>78</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
@@ -14426,7 +14542,7 @@
         <v>79</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C87" s="18"/>
       <c r="D87" s="18"/>
@@ -14460,8 +14576,8 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="B88" s="30" t="s">
-        <v>76</v>
+      <c r="B88" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
@@ -14491,13 +14607,14 @@
       <c r="AB88" s="18"/>
     </row>
     <row r="89" spans="1:28" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="34"/>
       <c r="L89" s="16" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="90" spans="1:28" s="27" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="24"/>
-      <c r="B90" s="29"/>
+      <c r="B90" s="35"/>
       <c r="C90" s="26">
         <v>44381</v>
       </c>
@@ -14582,7 +14699,7 @@
         <v>81</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
@@ -14617,7 +14734,7 @@
         <v>82</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="C92" s="18"/>
       <c r="D92" s="18"/>
@@ -14652,7 +14769,7 @@
         <v>83</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>355</v>
+        <v>61</v>
       </c>
       <c r="C93" s="18"/>
       <c r="D93" s="18"/>
@@ -14687,7 +14804,7 @@
         <v>84</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="C94" s="18"/>
       <c r="D94" s="18"/>
@@ -14722,7 +14839,7 @@
         <v>85</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
@@ -14757,7 +14874,7 @@
         <v>86</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>16</v>
+        <v>389</v>
       </c>
       <c r="C96" s="18"/>
       <c r="D96" s="18"/>
@@ -14791,10 +14908,10 @@
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="B97" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C97" s="18"/>
+      <c r="B97" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="C97" s="20"/>
       <c r="D97" s="18"/>
       <c r="E97" s="18"/>
       <c r="F97" s="18"/>
@@ -14826,8 +14943,8 @@
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="B98" s="30" t="s">
-        <v>104</v>
+      <c r="B98" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="18"/>
@@ -14862,7 +14979,7 @@
         <v>89</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="C99" s="18"/>
       <c r="D99" s="18"/>
@@ -14897,7 +15014,7 @@
         <v>90</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="C100" s="18"/>
       <c r="D100" s="18"/>
@@ -14932,7 +15049,7 @@
         <v>91</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>25</v>
+        <v>392</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
@@ -14967,7 +15084,7 @@
         <v>92</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
@@ -15002,7 +15119,7 @@
         <v>93</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>38</v>
+        <v>393</v>
       </c>
       <c r="C103" s="18"/>
       <c r="D103" s="18"/>
@@ -15037,7 +15154,7 @@
         <v>94</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="C104" s="18"/>
       <c r="D104" s="18"/>
@@ -15072,7 +15189,7 @@
         <v>95</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>33</v>
+        <v>394</v>
       </c>
       <c r="C105" s="18"/>
       <c r="D105" s="18"/>
@@ -15107,7 +15224,7 @@
         <v>96</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>54</v>
+        <v>395</v>
       </c>
       <c r="C106" s="18"/>
       <c r="D106" s="18"/>
@@ -15142,7 +15259,7 @@
         <v>97</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>93</v>
+        <v>396</v>
       </c>
       <c r="C107" s="18"/>
       <c r="D107" s="18"/>
@@ -15177,7 +15294,7 @@
         <v>98</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>70</v>
+        <v>398</v>
       </c>
       <c r="C108" s="18"/>
       <c r="D108" s="18"/>
@@ -15212,7 +15329,7 @@
         <v>99</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C109" s="18"/>
       <c r="D109" s="18"/>
@@ -15246,8 +15363,8 @@
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="B110" s="30" t="s">
-        <v>76</v>
+      <c r="B110" s="35" t="s">
+        <v>399</v>
       </c>
       <c r="C110" s="18"/>
       <c r="D110" s="18"/>
@@ -15277,13 +15394,14 @@
       <c r="AB110" s="18"/>
     </row>
     <row r="111" spans="1:28" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="34"/>
       <c r="L111" s="16" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="112" spans="1:28" s="27" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="24"/>
-      <c r="B112" s="29"/>
+      <c r="B112" s="35"/>
       <c r="C112" s="26">
         <v>44381</v>
       </c>
@@ -15368,7 +15486,7 @@
         <v>101</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="C113" s="18"/>
       <c r="D113" s="18"/>
@@ -15402,8 +15520,8 @@
         <f>A113+1</f>
         <v>102</v>
       </c>
-      <c r="B114" s="30" t="s">
-        <v>354</v>
+      <c r="B114" s="29" t="s">
+        <v>402</v>
       </c>
       <c r="C114" s="18"/>
       <c r="D114" s="18"/>
@@ -15438,7 +15556,7 @@
         <v>103</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="C115" s="18"/>
       <c r="D115" s="18"/>
@@ -15472,10 +15590,10 @@
         <f t="shared" si="5"/>
         <v>104</v>
       </c>
-      <c r="B116" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="C116" s="18"/>
+      <c r="B116" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="C116" s="20"/>
       <c r="D116" s="18"/>
       <c r="E116" s="18"/>
       <c r="F116" s="18"/>
@@ -15508,7 +15626,7 @@
         <v>105</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="C117" s="18"/>
       <c r="D117" s="18"/>
@@ -15543,7 +15661,7 @@
         <v>106</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="C118" s="18"/>
       <c r="D118" s="18"/>
@@ -15578,7 +15696,7 @@
         <v>107</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="C119" s="18"/>
       <c r="D119" s="18"/>
@@ -15613,7 +15731,7 @@
         <v>108</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>104</v>
+        <v>413</v>
       </c>
       <c r="C120" s="18"/>
       <c r="D120" s="18"/>
@@ -15648,7 +15766,7 @@
         <v>109</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>35</v>
+        <v>407</v>
       </c>
       <c r="C121" s="18"/>
       <c r="D121" s="18"/>
@@ -15683,7 +15801,7 @@
         <v>110</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>110</v>
+        <v>408</v>
       </c>
       <c r="C122" s="18"/>
       <c r="D122" s="18"/>
@@ -15718,7 +15836,7 @@
         <v>111</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>25</v>
+        <v>414</v>
       </c>
       <c r="C123" s="18"/>
       <c r="D123" s="18"/>
@@ -15753,7 +15871,7 @@
         <v>112</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>88</v>
+        <v>415</v>
       </c>
       <c r="C124" s="18"/>
       <c r="D124" s="18"/>
@@ -15788,7 +15906,7 @@
         <v>113</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>38</v>
+        <v>416</v>
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="18"/>
@@ -15823,7 +15941,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>51</v>
+        <v>417</v>
       </c>
       <c r="C126" s="18"/>
       <c r="D126" s="18"/>
@@ -15858,7 +15976,7 @@
         <v>115</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>33</v>
+        <v>418</v>
       </c>
       <c r="C127" s="18"/>
       <c r="D127" s="18"/>
@@ -15893,7 +16011,7 @@
         <v>116</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>54</v>
+        <v>419</v>
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="18"/>
@@ -15927,8 +16045,8 @@
         <f t="shared" si="5"/>
         <v>117</v>
       </c>
-      <c r="B129" s="30" t="s">
-        <v>93</v>
+      <c r="B129" s="32" t="s">
+        <v>421</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="18"/>
@@ -15963,7 +16081,7 @@
         <v>118</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="C130" s="18"/>
       <c r="D130" s="18"/>
@@ -15998,7 +16116,7 @@
         <v>119</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>132</v>
+        <v>422</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="18"/>
@@ -16033,7 +16151,7 @@
         <v>120</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>76</v>
+        <v>423</v>
       </c>
       <c r="C132" s="18"/>
       <c r="D132" s="18"/>
@@ -16154,7 +16272,7 @@
         <v>121</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>353</v>
+        <v>424</v>
       </c>
       <c r="C135" s="18"/>
       <c r="D135" s="18"/>
@@ -16189,7 +16307,7 @@
         <v>122</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>354</v>
+        <v>425</v>
       </c>
       <c r="C136" s="18"/>
       <c r="D136" s="18"/>
@@ -16224,7 +16342,7 @@
         <v>123</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>355</v>
+        <v>426</v>
       </c>
       <c r="C137" s="18"/>
       <c r="D137" s="18"/>
@@ -16259,7 +16377,7 @@
         <v>124</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>356</v>
+        <v>427</v>
       </c>
       <c r="C138" s="18"/>
       <c r="D138" s="18"/>
@@ -16294,7 +16412,7 @@
         <v>125</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>357</v>
+        <v>428</v>
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="18"/>
@@ -16329,7 +16447,7 @@
         <v>126</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>16</v>
+        <v>429</v>
       </c>
       <c r="C140" s="18"/>
       <c r="D140" s="18"/>
@@ -16364,7 +16482,7 @@
         <v>127</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>36</v>
+        <v>430</v>
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="18"/>
@@ -16399,7 +16517,7 @@
         <v>128</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>104</v>
+        <v>431</v>
       </c>
       <c r="C142" s="18"/>
       <c r="D142" s="18"/>
@@ -16433,9 +16551,7 @@
         <f t="shared" si="6"/>
         <v>129</v>
       </c>
-      <c r="B143" s="30" t="s">
-        <v>35</v>
-      </c>
+      <c r="B143" s="30"/>
       <c r="C143" s="18"/>
       <c r="D143" s="18"/>
       <c r="E143" s="18"/>
@@ -16468,9 +16584,7 @@
         <f t="shared" si="6"/>
         <v>130</v>
       </c>
-      <c r="B144" s="30" t="s">
-        <v>110</v>
-      </c>
+      <c r="B144" s="30"/>
       <c r="C144" s="18"/>
       <c r="D144" s="18"/>
       <c r="E144" s="18"/>
@@ -16503,9 +16617,7 @@
         <f t="shared" si="6"/>
         <v>131</v>
       </c>
-      <c r="B145" s="30" t="s">
-        <v>25</v>
-      </c>
+      <c r="B145" s="30"/>
       <c r="C145" s="18"/>
       <c r="D145" s="18"/>
       <c r="E145" s="18"/>
@@ -16538,9 +16650,7 @@
         <f t="shared" si="6"/>
         <v>132</v>
       </c>
-      <c r="B146" s="30" t="s">
-        <v>88</v>
-      </c>
+      <c r="B146" s="30"/>
       <c r="C146" s="18"/>
       <c r="D146" s="18"/>
       <c r="E146" s="18"/>
@@ -16573,9 +16683,7 @@
         <f t="shared" si="6"/>
         <v>133</v>
       </c>
-      <c r="B147" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="B147" s="30"/>
       <c r="C147" s="18"/>
       <c r="D147" s="18"/>
       <c r="E147" s="18"/>
@@ -16608,9 +16716,7 @@
         <f t="shared" si="6"/>
         <v>134</v>
       </c>
-      <c r="B148" s="30" t="s">
-        <v>51</v>
-      </c>
+      <c r="B148" s="30"/>
       <c r="C148" s="18"/>
       <c r="D148" s="18"/>
       <c r="E148" s="18"/>
@@ -16643,9 +16749,7 @@
         <f t="shared" si="6"/>
         <v>135</v>
       </c>
-      <c r="B149" s="30" t="s">
-        <v>33</v>
-      </c>
+      <c r="B149" s="30"/>
       <c r="C149" s="18"/>
       <c r="D149" s="18"/>
       <c r="E149" s="18"/>
@@ -16678,9 +16782,7 @@
         <f t="shared" si="6"/>
         <v>136</v>
       </c>
-      <c r="B150" s="30" t="s">
-        <v>54</v>
-      </c>
+      <c r="B150" s="30"/>
       <c r="C150" s="18"/>
       <c r="D150" s="18"/>
       <c r="E150" s="18"/>
@@ -16713,9 +16815,7 @@
         <f t="shared" si="6"/>
         <v>137</v>
       </c>
-      <c r="B151" s="30" t="s">
-        <v>93</v>
-      </c>
+      <c r="B151" s="30"/>
       <c r="C151" s="18"/>
       <c r="D151" s="18"/>
       <c r="E151" s="18"/>
@@ -16748,9 +16848,7 @@
         <f t="shared" si="6"/>
         <v>138</v>
       </c>
-      <c r="B152" s="30" t="s">
-        <v>70</v>
-      </c>
+      <c r="B152" s="30"/>
       <c r="C152" s="18"/>
       <c r="D152" s="18"/>
       <c r="E152" s="18"/>
@@ -16783,9 +16881,7 @@
         <f t="shared" si="6"/>
         <v>139</v>
       </c>
-      <c r="B153" s="30" t="s">
-        <v>132</v>
-      </c>
+      <c r="B153" s="30"/>
       <c r="C153" s="18"/>
       <c r="D153" s="18"/>
       <c r="E153" s="18"/>
@@ -16818,9 +16914,7 @@
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
-      <c r="B154" s="30" t="s">
-        <v>76</v>
-      </c>
+      <c r="B154" s="30"/>
       <c r="C154" s="18"/>
       <c r="D154" s="18"/>
       <c r="E154" s="18"/>
@@ -16939,9 +17033,7 @@
       <c r="A157" s="25">
         <v>141</v>
       </c>
-      <c r="B157" s="30" t="s">
-        <v>353</v>
-      </c>
+      <c r="B157" s="30"/>
       <c r="C157" s="18"/>
       <c r="D157" s="18"/>
       <c r="E157" s="18"/>
@@ -16974,9 +17066,7 @@
         <f>A157+1</f>
         <v>142</v>
       </c>
-      <c r="B158" s="30" t="s">
-        <v>354</v>
-      </c>
+      <c r="B158" s="30"/>
       <c r="C158" s="18"/>
       <c r="D158" s="18"/>
       <c r="E158" s="18"/>
@@ -17009,9 +17099,7 @@
         <f t="shared" ref="A159:A176" si="7">A158+1</f>
         <v>143</v>
       </c>
-      <c r="B159" s="30" t="s">
-        <v>355</v>
-      </c>
+      <c r="B159" s="30"/>
       <c r="C159" s="18"/>
       <c r="D159" s="18"/>
       <c r="E159" s="18"/>
@@ -17044,9 +17132,7 @@
         <f t="shared" si="7"/>
         <v>144</v>
       </c>
-      <c r="B160" s="30" t="s">
-        <v>356</v>
-      </c>
+      <c r="B160" s="30"/>
       <c r="C160" s="18"/>
       <c r="D160" s="18"/>
       <c r="E160" s="18"/>
@@ -17079,9 +17165,7 @@
         <f t="shared" si="7"/>
         <v>145</v>
       </c>
-      <c r="B161" s="30" t="s">
-        <v>357</v>
-      </c>
+      <c r="B161" s="30"/>
       <c r="C161" s="18"/>
       <c r="D161" s="18"/>
       <c r="E161" s="18"/>
@@ -17114,9 +17198,7 @@
         <f t="shared" si="7"/>
         <v>146</v>
       </c>
-      <c r="B162" s="30" t="s">
-        <v>16</v>
-      </c>
+      <c r="B162" s="30"/>
       <c r="C162" s="18"/>
       <c r="D162" s="18"/>
       <c r="E162" s="18"/>
@@ -17149,9 +17231,7 @@
         <f t="shared" si="7"/>
         <v>147</v>
       </c>
-      <c r="B163" s="30" t="s">
-        <v>36</v>
-      </c>
+      <c r="B163" s="30"/>
       <c r="C163" s="18"/>
       <c r="D163" s="18"/>
       <c r="E163" s="18"/>
@@ -17184,9 +17264,7 @@
         <f t="shared" si="7"/>
         <v>148</v>
       </c>
-      <c r="B164" s="30" t="s">
-        <v>104</v>
-      </c>
+      <c r="B164" s="30"/>
       <c r="C164" s="18"/>
       <c r="D164" s="18"/>
       <c r="E164" s="18"/>
@@ -17219,9 +17297,7 @@
         <f t="shared" si="7"/>
         <v>149</v>
       </c>
-      <c r="B165" s="30" t="s">
-        <v>35</v>
-      </c>
+      <c r="B165" s="30"/>
       <c r="C165" s="18"/>
       <c r="D165" s="18"/>
       <c r="E165" s="18"/>
@@ -17254,9 +17330,7 @@
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="B166" s="30" t="s">
-        <v>110</v>
-      </c>
+      <c r="B166" s="30"/>
       <c r="C166" s="18"/>
       <c r="D166" s="18"/>
       <c r="E166" s="18"/>
@@ -17289,9 +17363,7 @@
         <f t="shared" si="7"/>
         <v>151</v>
       </c>
-      <c r="B167" s="30" t="s">
-        <v>25</v>
-      </c>
+      <c r="B167" s="30"/>
       <c r="C167" s="18"/>
       <c r="D167" s="18"/>
       <c r="E167" s="18"/>
@@ -17324,9 +17396,7 @@
         <f t="shared" si="7"/>
         <v>152</v>
       </c>
-      <c r="B168" s="30" t="s">
-        <v>88</v>
-      </c>
+      <c r="B168" s="30"/>
       <c r="C168" s="18"/>
       <c r="D168" s="18"/>
       <c r="E168" s="18"/>
@@ -17359,9 +17429,7 @@
         <f t="shared" si="7"/>
         <v>153</v>
       </c>
-      <c r="B169" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="B169" s="30"/>
       <c r="C169" s="18"/>
       <c r="D169" s="18"/>
       <c r="E169" s="18"/>
@@ -17394,9 +17462,7 @@
         <f t="shared" si="7"/>
         <v>154</v>
       </c>
-      <c r="B170" s="30" t="s">
-        <v>51</v>
-      </c>
+      <c r="B170" s="30"/>
       <c r="C170" s="18"/>
       <c r="D170" s="18"/>
       <c r="E170" s="18"/>
@@ -17429,9 +17495,7 @@
         <f t="shared" si="7"/>
         <v>155</v>
       </c>
-      <c r="B171" s="30" t="s">
-        <v>33</v>
-      </c>
+      <c r="B171" s="30"/>
       <c r="C171" s="18"/>
       <c r="D171" s="18"/>
       <c r="E171" s="18"/>
@@ -17464,9 +17528,7 @@
         <f t="shared" si="7"/>
         <v>156</v>
       </c>
-      <c r="B172" s="30" t="s">
-        <v>54</v>
-      </c>
+      <c r="B172" s="30"/>
       <c r="C172" s="18"/>
       <c r="D172" s="18"/>
       <c r="E172" s="18"/>
@@ -17499,9 +17561,7 @@
         <f t="shared" si="7"/>
         <v>157</v>
       </c>
-      <c r="B173" s="30" t="s">
-        <v>93</v>
-      </c>
+      <c r="B173" s="30"/>
       <c r="C173" s="18"/>
       <c r="D173" s="18"/>
       <c r="E173" s="18"/>
@@ -17534,9 +17594,7 @@
         <f t="shared" si="7"/>
         <v>158</v>
       </c>
-      <c r="B174" s="30" t="s">
-        <v>70</v>
-      </c>
+      <c r="B174" s="30"/>
       <c r="C174" s="18"/>
       <c r="D174" s="18"/>
       <c r="E174" s="18"/>
@@ -17569,9 +17627,7 @@
         <f t="shared" si="7"/>
         <v>159</v>
       </c>
-      <c r="B175" s="30" t="s">
-        <v>132</v>
-      </c>
+      <c r="B175" s="30"/>
       <c r="C175" s="18"/>
       <c r="D175" s="18"/>
       <c r="E175" s="18"/>
@@ -17604,9 +17660,7 @@
         <f t="shared" si="7"/>
         <v>160</v>
       </c>
-      <c r="B176" s="30" t="s">
-        <v>76</v>
-      </c>
+      <c r="B176" s="30"/>
       <c r="C176" s="18"/>
       <c r="D176" s="18"/>
       <c r="E176" s="18"/>
@@ -17641,7 +17695,7 @@
     </row>
     <row r="178" spans="1:28" s="27" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="24"/>
-      <c r="B178" s="29"/>
+      <c r="B178" s="28"/>
       <c r="C178" s="26">
         <v>44381</v>
       </c>
@@ -17725,9 +17779,7 @@
       <c r="A179" s="25">
         <v>161</v>
       </c>
-      <c r="B179" s="30" t="s">
-        <v>353</v>
-      </c>
+      <c r="B179" s="28"/>
       <c r="C179" s="18"/>
       <c r="D179" s="18"/>
       <c r="E179" s="18"/>
@@ -17760,9 +17812,7 @@
         <f>A179+1</f>
         <v>162</v>
       </c>
-      <c r="B180" s="30" t="s">
-        <v>354</v>
-      </c>
+      <c r="B180" s="28"/>
       <c r="C180" s="18"/>
       <c r="D180" s="18"/>
       <c r="E180" s="18"/>
@@ -17795,9 +17845,7 @@
         <f t="shared" ref="A181:A198" si="8">A180+1</f>
         <v>163</v>
       </c>
-      <c r="B181" s="30" t="s">
-        <v>355</v>
-      </c>
+      <c r="B181" s="28"/>
       <c r="C181" s="18"/>
       <c r="D181" s="18"/>
       <c r="E181" s="18"/>
@@ -17830,9 +17878,7 @@
         <f t="shared" si="8"/>
         <v>164</v>
       </c>
-      <c r="B182" s="30" t="s">
-        <v>356</v>
-      </c>
+      <c r="B182" s="28"/>
       <c r="C182" s="18"/>
       <c r="D182" s="18"/>
       <c r="E182" s="18"/>
@@ -17865,9 +17911,7 @@
         <f t="shared" si="8"/>
         <v>165</v>
       </c>
-      <c r="B183" s="30" t="s">
-        <v>357</v>
-      </c>
+      <c r="B183" s="28"/>
       <c r="C183" s="18"/>
       <c r="D183" s="18"/>
       <c r="E183" s="18"/>
@@ -17900,9 +17944,7 @@
         <f t="shared" si="8"/>
         <v>166</v>
       </c>
-      <c r="B184" s="30" t="s">
-        <v>16</v>
-      </c>
+      <c r="B184" s="28"/>
       <c r="C184" s="18"/>
       <c r="D184" s="18"/>
       <c r="E184" s="18"/>
@@ -17935,9 +17977,7 @@
         <f t="shared" si="8"/>
         <v>167</v>
       </c>
-      <c r="B185" s="30" t="s">
-        <v>36</v>
-      </c>
+      <c r="B185" s="28"/>
       <c r="C185" s="18"/>
       <c r="D185" s="18"/>
       <c r="E185" s="18"/>
@@ -17970,9 +18010,7 @@
         <f t="shared" si="8"/>
         <v>168</v>
       </c>
-      <c r="B186" s="30" t="s">
-        <v>104</v>
-      </c>
+      <c r="B186" s="28"/>
       <c r="C186" s="18"/>
       <c r="D186" s="18"/>
       <c r="E186" s="18"/>
@@ -18005,9 +18043,7 @@
         <f t="shared" si="8"/>
         <v>169</v>
       </c>
-      <c r="B187" s="30" t="s">
-        <v>35</v>
-      </c>
+      <c r="B187" s="28"/>
       <c r="C187" s="18"/>
       <c r="D187" s="18"/>
       <c r="E187" s="18"/>
@@ -18040,9 +18076,7 @@
         <f t="shared" si="8"/>
         <v>170</v>
       </c>
-      <c r="B188" s="30" t="s">
-        <v>110</v>
-      </c>
+      <c r="B188" s="28"/>
       <c r="C188" s="18"/>
       <c r="D188" s="18"/>
       <c r="E188" s="18"/>
@@ -18075,9 +18109,7 @@
         <f t="shared" si="8"/>
         <v>171</v>
       </c>
-      <c r="B189" s="30" t="s">
-        <v>25</v>
-      </c>
+      <c r="B189" s="28"/>
       <c r="C189" s="18"/>
       <c r="D189" s="18"/>
       <c r="E189" s="18"/>
@@ -18110,9 +18142,7 @@
         <f t="shared" si="8"/>
         <v>172</v>
       </c>
-      <c r="B190" s="30" t="s">
-        <v>88</v>
-      </c>
+      <c r="B190" s="28"/>
       <c r="C190" s="18"/>
       <c r="D190" s="18"/>
       <c r="E190" s="18"/>
@@ -18145,9 +18175,7 @@
         <f t="shared" si="8"/>
         <v>173</v>
       </c>
-      <c r="B191" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="B191" s="28"/>
       <c r="C191" s="18"/>
       <c r="D191" s="18"/>
       <c r="E191" s="18"/>
@@ -18180,9 +18208,7 @@
         <f t="shared" si="8"/>
         <v>174</v>
       </c>
-      <c r="B192" s="30" t="s">
-        <v>51</v>
-      </c>
+      <c r="B192" s="28"/>
       <c r="C192" s="18"/>
       <c r="D192" s="18"/>
       <c r="E192" s="18"/>
@@ -18215,9 +18241,7 @@
         <f t="shared" si="8"/>
         <v>175</v>
       </c>
-      <c r="B193" s="30" t="s">
-        <v>33</v>
-      </c>
+      <c r="B193" s="28"/>
       <c r="C193" s="18"/>
       <c r="D193" s="18"/>
       <c r="E193" s="18"/>
@@ -18250,9 +18274,7 @@
         <f t="shared" si="8"/>
         <v>176</v>
       </c>
-      <c r="B194" s="30" t="s">
-        <v>54</v>
-      </c>
+      <c r="B194" s="28"/>
       <c r="C194" s="18"/>
       <c r="D194" s="18"/>
       <c r="E194" s="18"/>
@@ -18285,9 +18307,7 @@
         <f t="shared" si="8"/>
         <v>177</v>
       </c>
-      <c r="B195" s="30" t="s">
-        <v>93</v>
-      </c>
+      <c r="B195" s="28"/>
       <c r="C195" s="18"/>
       <c r="D195" s="18"/>
       <c r="E195" s="18"/>
@@ -18320,9 +18340,7 @@
         <f t="shared" si="8"/>
         <v>178</v>
       </c>
-      <c r="B196" s="30" t="s">
-        <v>70</v>
-      </c>
+      <c r="B196" s="28"/>
       <c r="C196" s="18"/>
       <c r="D196" s="18"/>
       <c r="E196" s="18"/>
@@ -18355,9 +18373,7 @@
         <f t="shared" si="8"/>
         <v>179</v>
       </c>
-      <c r="B197" s="30" t="s">
-        <v>132</v>
-      </c>
+      <c r="B197" s="28"/>
       <c r="C197" s="18"/>
       <c r="D197" s="18"/>
       <c r="E197" s="18"/>
@@ -18390,9 +18406,7 @@
         <f t="shared" si="8"/>
         <v>180</v>
       </c>
-      <c r="B198" s="30" t="s">
-        <v>76</v>
-      </c>
+      <c r="B198" s="28"/>
       <c r="C198" s="18"/>
       <c r="D198" s="18"/>
       <c r="E198" s="18"/>
